--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_23_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_23_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3508430.346272257</v>
+        <v>3505950.394224206</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12760454.40388627</v>
+        <v>12760454.40388628</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>193040.4546087537</v>
+        <v>193040.4546087548</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7675866.381190498</v>
+        <v>7675866.381190499</v>
       </c>
     </row>
     <row r="11">
@@ -735,76 +735,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>4.018462044011843</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="E3" t="n">
-        <v>4.018462044011843</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>4.562286607642875</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -972,76 +972,76 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6.056421089299432</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1145,7 +1145,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>6.876045741711465</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1230,13 +1230,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6.056421089299459</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>6.876045741711465</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>6.876045741711465</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1254,10 +1254,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.876045741711465</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>350.5831761289541</v>
+        <v>325.6111668520643</v>
       </c>
       <c r="C11" t="n">
         <v>333.122226236481</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>35.41470528544694</v>
+        <v>60.38671456233531</v>
       </c>
       <c r="T11" t="n">
         <v>168.5687507552318</v>
       </c>
       <c r="U11" t="n">
-        <v>218.7860519850862</v>
+        <v>218.7860519850861</v>
       </c>
       <c r="V11" t="n">
         <v>295.6015929356084</v>
@@ -1467,7 +1467,7 @@
         <v>85.82113567975873</v>
       </c>
       <c r="I12" t="n">
-        <v>5.356929423073908</v>
+        <v>5.356929423073922</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,10 +1531,10 @@
         <v>135.0961555641013</v>
       </c>
       <c r="D13" t="n">
-        <v>116.4648074836859</v>
+        <v>116.4648074836858</v>
       </c>
       <c r="E13" t="n">
-        <v>114.2832971120427</v>
+        <v>114.2832971120426</v>
       </c>
       <c r="F13" t="n">
         <v>113.2703824884047</v>
@@ -1546,7 +1546,7 @@
         <v>109.6902817867195</v>
       </c>
       <c r="I13" t="n">
-        <v>54.3451745093696</v>
+        <v>54.34517450936958</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>42.04429049406102</v>
+        <v>42.044290494061</v>
       </c>
       <c r="S13" t="n">
         <v>151.906429760183</v>
       </c>
       <c r="T13" t="n">
-        <v>185.997862710206</v>
+        <v>185.9978627102059</v>
       </c>
       <c r="U13" t="n">
         <v>254.0432949557914</v>
@@ -1591,7 +1591,7 @@
         <v>254.3723328020645</v>
       </c>
       <c r="X13" t="n">
-        <v>193.5589898545107</v>
+        <v>193.5589898545106</v>
       </c>
       <c r="Y13" t="n">
         <v>186.4339878175683</v>
@@ -1616,7 +1616,7 @@
         <v>349.7797045377353</v>
       </c>
       <c r="F14" t="n">
-        <v>374.7253802071849</v>
+        <v>349.7533709302946</v>
       </c>
       <c r="G14" t="n">
         <v>378.0403796278106</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>60.38671456233537</v>
+        <v>60.38671456233534</v>
       </c>
       <c r="T14" t="n">
         <v>168.5687507552318</v>
       </c>
       <c r="U14" t="n">
-        <v>218.7860519850862</v>
+        <v>218.7860519850861</v>
       </c>
       <c r="V14" t="n">
         <v>295.6015929356084</v>
       </c>
       <c r="W14" t="n">
-        <v>292.1182939059968</v>
+        <v>317.0903031828865</v>
       </c>
       <c r="X14" t="n">
         <v>337.5804351439425</v>
@@ -1768,10 +1768,10 @@
         <v>135.0961555641013</v>
       </c>
       <c r="D16" t="n">
-        <v>116.4648074836859</v>
+        <v>116.4648074836858</v>
       </c>
       <c r="E16" t="n">
-        <v>114.2832971120427</v>
+        <v>114.2832971120426</v>
       </c>
       <c r="F16" t="n">
         <v>113.2703824884047</v>
@@ -1783,7 +1783,7 @@
         <v>109.6902817867195</v>
       </c>
       <c r="I16" t="n">
-        <v>54.34517450936963</v>
+        <v>54.3451745093696</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>42.04429049406104</v>
+        <v>42.04429049406102</v>
       </c>
       <c r="S16" t="n">
         <v>151.906429760183</v>
       </c>
       <c r="T16" t="n">
-        <v>185.997862710206</v>
+        <v>185.9978627102059</v>
       </c>
       <c r="U16" t="n">
         <v>254.0432949557914</v>
@@ -1828,7 +1828,7 @@
         <v>254.3723328020645</v>
       </c>
       <c r="X16" t="n">
-        <v>193.5589898545107</v>
+        <v>193.5589898545106</v>
       </c>
       <c r="Y16" t="n">
         <v>186.4339878175683</v>
@@ -1844,7 +1844,7 @@
         <v>348.7994611806047</v>
       </c>
       <c r="C17" t="n">
-        <v>331.3385112881317</v>
+        <v>331.3385112881331</v>
       </c>
       <c r="D17" t="n">
         <v>320.7486611378071</v>
@@ -1859,7 +1859,7 @@
         <v>376.2566646794613</v>
       </c>
       <c r="H17" t="n">
-        <v>253.1903023247992</v>
+        <v>253.1903023247993</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.60299961398689</v>
+        <v>58.602999613986</v>
       </c>
       <c r="T17" t="n">
         <v>166.7850358068825</v>
@@ -1941,7 +1941,7 @@
         <v>85.82113567975873</v>
       </c>
       <c r="I18" t="n">
-        <v>5.356929423073922</v>
+        <v>5.356929423073936</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>111.4866675400554</v>
       </c>
       <c r="G19" t="n">
-        <v>131.7636696624119</v>
+        <v>131.7636696624118</v>
       </c>
       <c r="H19" t="n">
         <v>107.9065668383702</v>
       </c>
       <c r="I19" t="n">
-        <v>52.56145956102029</v>
+        <v>52.56145956102027</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>40.26057554571169</v>
+        <v>40.2605755457117</v>
       </c>
       <c r="S19" t="n">
-        <v>150.1227148118336</v>
+        <v>150.1227148118337</v>
       </c>
       <c r="T19" t="n">
         <v>184.2141477618566</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>348.7994611806046</v>
+        <v>348.7994611806047</v>
       </c>
       <c r="C20" t="n">
-        <v>331.3385112881316</v>
+        <v>331.3385112881317</v>
       </c>
       <c r="D20" t="n">
-        <v>320.748661137807</v>
+        <v>320.7486611378071</v>
       </c>
       <c r="E20" t="n">
-        <v>347.9959895893858</v>
+        <v>347.9959895893859</v>
       </c>
       <c r="F20" t="n">
-        <v>372.9416652588355</v>
+        <v>372.9416652588356</v>
       </c>
       <c r="G20" t="n">
-        <v>376.2566646794612</v>
+        <v>376.2566646794613</v>
       </c>
       <c r="H20" t="n">
-        <v>253.1903023247991</v>
+        <v>253.1903023247992</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.60299961398589</v>
+        <v>58.60299961398601</v>
       </c>
       <c r="T20" t="n">
-        <v>166.7850358068823</v>
+        <v>166.7850358068824</v>
       </c>
       <c r="U20" t="n">
-        <v>217.0023370367392</v>
+        <v>217.0023370367368</v>
       </c>
       <c r="V20" t="n">
-        <v>293.817877987259</v>
+        <v>293.8178779872591</v>
       </c>
       <c r="W20" t="n">
-        <v>315.3065882345371</v>
+        <v>315.3065882345372</v>
       </c>
       <c r="X20" t="n">
-        <v>335.7967201955931</v>
+        <v>335.7967201955932</v>
       </c>
       <c r="Y20" t="n">
-        <v>352.3035581731776</v>
+        <v>352.3035581731777</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>85.82113567975873</v>
       </c>
       <c r="I21" t="n">
-        <v>5.356929423073922</v>
+        <v>5.356929423073936</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>145.8975996990613</v>
+        <v>145.8975996990615</v>
       </c>
       <c r="C22" t="n">
-        <v>133.3124406157519</v>
+        <v>133.312440615752</v>
       </c>
       <c r="D22" t="n">
-        <v>114.6810925353364</v>
+        <v>114.6810925353365</v>
       </c>
       <c r="E22" t="n">
-        <v>112.4995821636932</v>
+        <v>112.4995821636933</v>
       </c>
       <c r="F22" t="n">
-        <v>111.4866675400553</v>
+        <v>111.4866675400554</v>
       </c>
       <c r="G22" t="n">
         <v>131.7636696624118</v>
       </c>
       <c r="H22" t="n">
-        <v>107.9065668383701</v>
+        <v>107.9065668383702</v>
       </c>
       <c r="I22" t="n">
-        <v>52.56145956102016</v>
+        <v>52.56145956102027</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>40.26057554571157</v>
+        <v>40.2605755457117</v>
       </c>
       <c r="S22" t="n">
-        <v>150.1227148118335</v>
+        <v>150.1227148118337</v>
       </c>
       <c r="T22" t="n">
-        <v>184.2141477618565</v>
+        <v>184.2141477618566</v>
       </c>
       <c r="U22" t="n">
-        <v>252.259580007442</v>
+        <v>252.2595800074421</v>
       </c>
       <c r="V22" t="n">
-        <v>218.203262840952</v>
+        <v>218.2032628409522</v>
       </c>
       <c r="W22" t="n">
-        <v>252.588617853715</v>
+        <v>252.5886178537152</v>
       </c>
       <c r="X22" t="n">
-        <v>191.7752749061612</v>
+        <v>191.7752749061613</v>
       </c>
       <c r="Y22" t="n">
-        <v>184.6502728692188</v>
+        <v>184.650272869219</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>348.7994611806049</v>
+        <v>348.7994611806047</v>
       </c>
       <c r="C23" t="n">
-        <v>331.3385112881318</v>
+        <v>331.3385112881317</v>
       </c>
       <c r="D23" t="n">
-        <v>320.7486611378072</v>
+        <v>320.7486611378071</v>
       </c>
       <c r="E23" t="n">
-        <v>347.9959895893861</v>
+        <v>347.9959895893859</v>
       </c>
       <c r="F23" t="n">
-        <v>372.9416652588357</v>
+        <v>372.9416652588356</v>
       </c>
       <c r="G23" t="n">
-        <v>376.2566646794614</v>
+        <v>376.2566646794613</v>
       </c>
       <c r="H23" t="n">
-        <v>253.1903023247993</v>
+        <v>253.1903023247992</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.60299961398611</v>
+        <v>58.60299961398597</v>
       </c>
       <c r="T23" t="n">
-        <v>166.7850358068826</v>
+        <v>166.7850358068824</v>
       </c>
       <c r="U23" t="n">
-        <v>217.0023370367369</v>
+        <v>217.0023370367368</v>
       </c>
       <c r="V23" t="n">
-        <v>293.8178779872592</v>
+        <v>293.8178779872591</v>
       </c>
       <c r="W23" t="n">
-        <v>315.3065882345373</v>
+        <v>315.3065882345372</v>
       </c>
       <c r="X23" t="n">
-        <v>335.7967201955933</v>
+        <v>335.7967201955932</v>
       </c>
       <c r="Y23" t="n">
-        <v>352.3035581731779</v>
+        <v>352.3035581731777</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>145.8975996990616</v>
+        <v>145.8975996990614</v>
       </c>
       <c r="C25" t="n">
-        <v>133.3124406157521</v>
+        <v>133.312440615752</v>
       </c>
       <c r="D25" t="n">
-        <v>114.6810925353366</v>
+        <v>114.6810925353365</v>
       </c>
       <c r="E25" t="n">
-        <v>112.4995821636934</v>
+        <v>112.4995821636933</v>
       </c>
       <c r="F25" t="n">
-        <v>111.4866675400555</v>
+        <v>111.4866675400554</v>
       </c>
       <c r="G25" t="n">
-        <v>131.763669662412</v>
+        <v>131.7636696624118</v>
       </c>
       <c r="H25" t="n">
-        <v>107.9065668383703</v>
+        <v>107.9065668383702</v>
       </c>
       <c r="I25" t="n">
-        <v>52.56145956102038</v>
+        <v>52.56145956102024</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>40.2605755457118</v>
+        <v>40.26057554571166</v>
       </c>
       <c r="S25" t="n">
-        <v>150.1227148118338</v>
+        <v>150.1227148118336</v>
       </c>
       <c r="T25" t="n">
-        <v>184.2141477618567</v>
+        <v>184.2141477618566</v>
       </c>
       <c r="U25" t="n">
-        <v>252.2595800074422</v>
+        <v>252.2595800074421</v>
       </c>
       <c r="V25" t="n">
-        <v>218.2032628409523</v>
+        <v>218.2032628409521</v>
       </c>
       <c r="W25" t="n">
-        <v>252.5886178537153</v>
+        <v>252.5886178537151</v>
       </c>
       <c r="X25" t="n">
-        <v>191.7752749061614</v>
+        <v>191.7752749061613</v>
       </c>
       <c r="Y25" t="n">
-        <v>184.6502728692191</v>
+        <v>184.6502728692189</v>
       </c>
     </row>
     <row r="26">
@@ -2567,10 +2567,10 @@
         <v>374.7253802071849</v>
       </c>
       <c r="G26" t="n">
-        <v>378.0403796278106</v>
+        <v>353.0683703509221</v>
       </c>
       <c r="H26" t="n">
-        <v>230.00200799626</v>
+        <v>254.9740172731485</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.38671456233529</v>
+        <v>60.38671456233534</v>
       </c>
       <c r="T26" t="n">
         <v>168.5687507552318</v>
@@ -2719,7 +2719,7 @@
         <v>116.4648074836858</v>
       </c>
       <c r="E28" t="n">
-        <v>114.2832971120426</v>
+        <v>114.2832971120427</v>
       </c>
       <c r="F28" t="n">
         <v>113.2703824884047</v>
@@ -2731,7 +2731,7 @@
         <v>109.6902817867195</v>
       </c>
       <c r="I28" t="n">
-        <v>54.34517450936957</v>
+        <v>54.3451745093696</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04429049406099</v>
+        <v>42.04429049406102</v>
       </c>
       <c r="S28" t="n">
         <v>151.906429760183</v>
@@ -2804,7 +2804,7 @@
         <v>374.7253802071849</v>
       </c>
       <c r="G29" t="n">
-        <v>378.0403796278106</v>
+        <v>353.0683703509218</v>
       </c>
       <c r="H29" t="n">
         <v>254.9740172731485</v>
@@ -2846,7 +2846,7 @@
         <v>168.5687507552318</v>
       </c>
       <c r="U29" t="n">
-        <v>193.8140427081975</v>
+        <v>218.7860519850862</v>
       </c>
       <c r="V29" t="n">
         <v>295.6015929356084</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>348.7994611806049</v>
+        <v>348.7994611806048</v>
       </c>
       <c r="C35" t="n">
-        <v>331.3385112881319</v>
+        <v>331.3385112881318</v>
       </c>
       <c r="D35" t="n">
-        <v>320.7486611378073</v>
+        <v>320.7486611378072</v>
       </c>
       <c r="E35" t="n">
-        <v>347.9959895893861</v>
+        <v>347.995989589386</v>
       </c>
       <c r="F35" t="n">
-        <v>372.9416652588358</v>
+        <v>372.9416652588357</v>
       </c>
       <c r="G35" t="n">
-        <v>376.2566646794614</v>
+        <v>376.2566646794613</v>
       </c>
       <c r="H35" t="n">
-        <v>253.1903023247994</v>
+        <v>253.1903023247993</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.60299961398617</v>
+        <v>58.60299961398605</v>
       </c>
       <c r="T35" t="n">
-        <v>166.7850358068826</v>
+        <v>166.7850358068825</v>
       </c>
       <c r="U35" t="n">
-        <v>217.002337036737</v>
+        <v>217.0023370367369</v>
       </c>
       <c r="V35" t="n">
-        <v>293.8178779872592</v>
+        <v>293.8178779872591</v>
       </c>
       <c r="W35" t="n">
-        <v>315.3065882345373</v>
+        <v>315.3065882345372</v>
       </c>
       <c r="X35" t="n">
-        <v>335.7967201955934</v>
+        <v>335.7967201955933</v>
       </c>
       <c r="Y35" t="n">
-        <v>352.3035581731779</v>
+        <v>352.3035581731778</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>145.8975996990616</v>
+        <v>145.8975996990615</v>
       </c>
       <c r="C37" t="n">
-        <v>133.3124406157522</v>
+        <v>133.3124406157521</v>
       </c>
       <c r="D37" t="n">
-        <v>114.6810925353367</v>
+        <v>114.6810925353366</v>
       </c>
       <c r="E37" t="n">
-        <v>112.4995821636935</v>
+        <v>112.4995821636934</v>
       </c>
       <c r="F37" t="n">
-        <v>111.4866675400556</v>
+        <v>111.4866675400555</v>
       </c>
       <c r="G37" t="n">
-        <v>131.763669662412</v>
+        <v>131.7636696624119</v>
       </c>
       <c r="H37" t="n">
-        <v>107.9065668383704</v>
+        <v>107.9065668383703</v>
       </c>
       <c r="I37" t="n">
-        <v>52.56145956102044</v>
+        <v>52.56145956102033</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>40.26057554571186</v>
+        <v>40.26057554571175</v>
       </c>
       <c r="S37" t="n">
-        <v>150.1227148118338</v>
+        <v>150.1227148118337</v>
       </c>
       <c r="T37" t="n">
-        <v>184.2141477618568</v>
+        <v>184.2141477618567</v>
       </c>
       <c r="U37" t="n">
-        <v>252.2595800074423</v>
+        <v>252.2595800074421</v>
       </c>
       <c r="V37" t="n">
-        <v>218.2032628409523</v>
+        <v>218.2032628409522</v>
       </c>
       <c r="W37" t="n">
-        <v>252.5886178537153</v>
+        <v>252.5886178537152</v>
       </c>
       <c r="X37" t="n">
-        <v>191.7752749061615</v>
+        <v>191.7752749061614</v>
       </c>
       <c r="Y37" t="n">
-        <v>184.6502728692191</v>
+        <v>184.650272869219</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>348.7994611806048</v>
+        <v>348.7994611806049</v>
       </c>
       <c r="C38" t="n">
         <v>331.3385112881318</v>
@@ -3509,13 +3509,13 @@
         <v>320.7486611378072</v>
       </c>
       <c r="E38" t="n">
-        <v>347.995989589386</v>
+        <v>347.9959895893861</v>
       </c>
       <c r="F38" t="n">
         <v>372.9416652588357</v>
       </c>
       <c r="G38" t="n">
-        <v>376.2566646794613</v>
+        <v>376.2566646794614</v>
       </c>
       <c r="H38" t="n">
         <v>253.1903023247993</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.60299961398603</v>
+        <v>58.60299961398611</v>
       </c>
       <c r="T38" t="n">
-        <v>166.7850358068825</v>
+        <v>166.7850358068826</v>
       </c>
       <c r="U38" t="n">
         <v>217.0023370367369</v>
       </c>
       <c r="V38" t="n">
-        <v>293.8178779872591</v>
+        <v>293.8178779872592</v>
       </c>
       <c r="W38" t="n">
-        <v>315.3065882345372</v>
+        <v>315.3065882345373</v>
       </c>
       <c r="X38" t="n">
         <v>335.7967201955933</v>
       </c>
       <c r="Y38" t="n">
-        <v>352.3035581731778</v>
+        <v>352.3035581731779</v>
       </c>
     </row>
     <row r="39">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>145.8975996990615</v>
+        <v>145.8975996990616</v>
       </c>
       <c r="C40" t="n">
         <v>133.3124406157521</v>
@@ -3670,16 +3670,16 @@
         <v>112.4995821636934</v>
       </c>
       <c r="F40" t="n">
-        <v>111.4866675400554</v>
+        <v>111.4866675400555</v>
       </c>
       <c r="G40" t="n">
-        <v>131.7636696624119</v>
+        <v>131.763669662412</v>
       </c>
       <c r="H40" t="n">
-        <v>107.9065668383702</v>
+        <v>107.9065668383703</v>
       </c>
       <c r="I40" t="n">
-        <v>52.56145956102031</v>
+        <v>52.56145956102038</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>40.26057554571175</v>
+        <v>40.2605755457118</v>
       </c>
       <c r="S40" t="n">
-        <v>150.1227148118337</v>
+        <v>150.1227148118338</v>
       </c>
       <c r="T40" t="n">
         <v>184.2141477618567</v>
       </c>
       <c r="U40" t="n">
-        <v>252.2595800074421</v>
+        <v>252.2595800074422</v>
       </c>
       <c r="V40" t="n">
-        <v>218.2032628409522</v>
+        <v>218.2032628409523</v>
       </c>
       <c r="W40" t="n">
-        <v>252.5886178537152</v>
+        <v>252.5886178537153</v>
       </c>
       <c r="X40" t="n">
         <v>191.7752749061614</v>
       </c>
       <c r="Y40" t="n">
-        <v>184.650272869219</v>
+        <v>184.6502728692191</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>369.326471524318</v>
+        <v>355.6656393808451</v>
       </c>
       <c r="C41" t="n">
         <v>351.865521631845</v>
@@ -3749,13 +3749,13 @@
         <v>368.5229999330992</v>
       </c>
       <c r="F41" t="n">
-        <v>393.4686756025489</v>
+        <v>393.4686756025488</v>
       </c>
       <c r="G41" t="n">
-        <v>396.7836750231746</v>
+        <v>396.7836750231745</v>
       </c>
       <c r="H41" t="n">
-        <v>273.7173126685125</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>79.13000995769924</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>187.3120461505957</v>
       </c>
       <c r="U41" t="n">
-        <v>216.5932586767613</v>
+        <v>237.5293473804501</v>
       </c>
       <c r="V41" t="n">
-        <v>314.3448883309724</v>
+        <v>314.3448883309723</v>
       </c>
       <c r="W41" t="n">
-        <v>335.8335985782505</v>
+        <v>335.8335985782504</v>
       </c>
       <c r="X41" t="n">
-        <v>356.3237305393065</v>
+        <v>356.3237305393064</v>
       </c>
       <c r="Y41" t="n">
         <v>372.830568516891</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>166.4246100427748</v>
+        <v>115.2248111258843</v>
       </c>
       <c r="C43" t="n">
-        <v>107.2326673678969</v>
+        <v>153.8394509594652</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>133.0265925074066</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>152.2906800061252</v>
+        <v>152.2906800061251</v>
       </c>
       <c r="H43" t="n">
-        <v>128.4335771820835</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>73.08846990473357</v>
+        <v>73.08846990473351</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>60.78758588942499</v>
+        <v>60.78758588942493</v>
       </c>
       <c r="S43" t="n">
         <v>170.6497251555469</v>
@@ -3952,19 +3952,19 @@
         <v>204.7411581055699</v>
       </c>
       <c r="U43" t="n">
-        <v>272.7865903511554</v>
+        <v>272.7865903511553</v>
       </c>
       <c r="V43" t="n">
-        <v>238.7302731846655</v>
+        <v>238.7302731846654</v>
       </c>
       <c r="W43" t="n">
-        <v>273.1156281974285</v>
+        <v>273.1156281974284</v>
       </c>
       <c r="X43" t="n">
         <v>212.3022852498746</v>
       </c>
       <c r="Y43" t="n">
-        <v>205.1772832129323</v>
+        <v>205.1772832129322</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3986,7 @@
         <v>368.5229999330992</v>
       </c>
       <c r="F44" t="n">
-        <v>393.4686756025488</v>
+        <v>106.0905307905634</v>
       </c>
       <c r="G44" t="n">
         <v>396.7836750231745</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>79.13000995769924</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>187.3120461505957</v>
       </c>
       <c r="U44" t="n">
-        <v>216.5932586767617</v>
+        <v>237.5293473804501</v>
       </c>
       <c r="V44" t="n">
         <v>314.3448883309723</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>166.4246100427747</v>
+        <v>0.2937103691909294</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>153.8394509594652</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>135.2081028790498</v>
       </c>
       <c r="E46" t="n">
         <v>133.0265925074066</v>
@@ -4147,13 +4147,13 @@
         <v>132.0136778837687</v>
       </c>
       <c r="G46" t="n">
-        <v>152.2906800061251</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>43.71444406353954</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>73.08846990473351</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.581723550112187</v>
+        <v>5.065059808545741</v>
       </c>
       <c r="C2" t="n">
         <v>9.581723550112187</v>
@@ -4322,58 +4322,58 @@
         <v>0.36498292861143</v>
       </c>
       <c r="H2" t="n">
+        <v>0.36498292861143</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.36498292861143</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.36498292861143</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.36498292861143</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.36498292861143</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.36498292861143</v>
+      </c>
+      <c r="N2" t="n">
         <v>4.881646670177876</v>
       </c>
-      <c r="I2" t="n">
+      <c r="O2" t="n">
         <v>4.881646670177876</v>
       </c>
-      <c r="J2" t="n">
+      <c r="P2" t="n">
         <v>4.881646670177876</v>
       </c>
-      <c r="K2" t="n">
+      <c r="Q2" t="n">
         <v>4.881646670177876</v>
       </c>
-      <c r="L2" t="n">
+      <c r="R2" t="n">
         <v>4.881646670177876</v>
       </c>
-      <c r="M2" t="n">
+      <c r="S2" t="n">
         <v>4.881646670177876</v>
       </c>
-      <c r="N2" t="n">
-        <v>9.398310411744323</v>
-      </c>
-      <c r="O2" t="n">
-        <v>9.398310411744323</v>
-      </c>
-      <c r="P2" t="n">
-        <v>9.398310411744323</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.398310411744323</v>
-      </c>
-      <c r="R2" t="n">
-        <v>9.398310411744323</v>
-      </c>
-      <c r="S2" t="n">
-        <v>9.398310411744323</v>
-      </c>
       <c r="T2" t="n">
-        <v>9.398310411744323</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="U2" t="n">
-        <v>9.398310411744323</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="V2" t="n">
-        <v>9.398310411744323</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="W2" t="n">
-        <v>9.398310411744323</v>
+        <v>5.065059808545741</v>
       </c>
       <c r="X2" t="n">
-        <v>9.398310411744323</v>
+        <v>5.065059808545741</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.398310411744323</v>
+        <v>5.065059808545741</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.64077611982112</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="C3" t="n">
-        <v>13.64077611982112</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="D3" t="n">
-        <v>9.032405809070742</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="E3" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="F3" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G3" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H3" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I3" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J3" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K3" t="n">
         <v>0.36498292861143</v>
@@ -4419,7 +4419,7 @@
         <v>9.398310411744323</v>
       </c>
       <c r="N3" t="n">
-        <v>13.73248268900505</v>
+        <v>13.91497415331077</v>
       </c>
       <c r="O3" t="n">
         <v>18.2491464305715</v>
@@ -4431,13 +4431,13 @@
         <v>18.2491464305715</v>
       </c>
       <c r="R3" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="S3" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="T3" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="U3" t="n">
         <v>13.64077611982112</v>
@@ -4452,7 +4452,7 @@
         <v>13.64077611982112</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.64077611982112</v>
+        <v>9.032405809070742</v>
       </c>
     </row>
     <row r="4">
@@ -4544,10 +4544,10 @@
         <v>9.515918264388961</v>
       </c>
       <c r="C5" t="n">
-        <v>14.44108515774386</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="D5" t="n">
-        <v>14.44108515774386</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="E5" t="n">
         <v>14.44108515774386</v>
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="C6" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="D6" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="E6" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="K6" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="L6" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M6" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N6" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O6" t="n">
         <v>27.50418296684575</v>
@@ -4665,10 +4665,10 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q6" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R6" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S6" t="n">
         <v>20.55868221764227</v>
@@ -4680,16 +4680,16 @@
         <v>20.55868221764227</v>
       </c>
       <c r="V6" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W6" t="n">
-        <v>14.44108515774386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="X6" t="n">
-        <v>14.44108515774386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.44108515774386</v>
+        <v>6.667680719235332</v>
       </c>
     </row>
     <row r="7">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.44108515774389</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="C8" t="n">
-        <v>14.44108515774389</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D8" t="n">
-        <v>14.44108515774389</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E8" t="n">
-        <v>14.44108515774389</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F8" t="n">
-        <v>7.495584408540418</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H8" t="n">
-        <v>5.475250552691814</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I8" t="n">
-        <v>5.475250552691814</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J8" t="n">
-        <v>5.475250552691814</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>5.475250552691814</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L8" t="n">
-        <v>5.475250552691814</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M8" t="n">
-        <v>7.633799873449538</v>
+        <v>2.708632980094639</v>
       </c>
       <c r="N8" t="n">
-        <v>14.44108515774389</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="O8" t="n">
-        <v>14.44108515774389</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="P8" t="n">
-        <v>14.44108515774389</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="Q8" t="n">
-        <v>14.44108515774389</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="R8" t="n">
-        <v>14.44108515774389</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="S8" t="n">
-        <v>14.44108515774389</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="T8" t="n">
-        <v>14.44108515774389</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="U8" t="n">
-        <v>14.44108515774389</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="V8" t="n">
-        <v>14.44108515774389</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="W8" t="n">
-        <v>14.44108515774389</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="X8" t="n">
-        <v>14.44108515774389</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.44108515774389</v>
+        <v>9.515918264388961</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.55868221764236</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C9" t="n">
-        <v>20.55868221764236</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D9" t="n">
-        <v>20.55868221764236</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E9" t="n">
-        <v>20.55868221764236</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F9" t="n">
-        <v>20.55868221764236</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G9" t="n">
-        <v>20.55868221764236</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H9" t="n">
-        <v>20.55868221764236</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I9" t="n">
-        <v>14.44108515774392</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J9" t="n">
-        <v>7.495584408540418</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L9" t="n">
-        <v>7.082327113962808</v>
+        <v>5.770716025317804</v>
       </c>
       <c r="M9" t="n">
-        <v>13.88961239825716</v>
+        <v>12.57800130961213</v>
       </c>
       <c r="N9" t="n">
-        <v>20.69689768255151</v>
+        <v>19.38528659390645</v>
       </c>
       <c r="O9" t="n">
-        <v>27.50418296684586</v>
+        <v>26.19257187820077</v>
       </c>
       <c r="P9" t="n">
-        <v>27.50418296684586</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q9" t="n">
-        <v>20.55868221764236</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="R9" t="n">
-        <v>20.55868221764236</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="S9" t="n">
-        <v>20.55868221764236</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="T9" t="n">
-        <v>20.55868221764236</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U9" t="n">
-        <v>20.55868221764236</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V9" t="n">
-        <v>20.55868221764236</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W9" t="n">
-        <v>20.55868221764236</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="X9" t="n">
-        <v>20.55868221764236</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.55868221764236</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="P10" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="R10" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="S10" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="U10" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="W10" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X10" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.5500836593369173</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>341.8802972354459</v>
       </c>
       <c r="H11" t="n">
-        <v>84.33078483832612</v>
+        <v>84.33078483832611</v>
       </c>
       <c r="I11" t="n">
-        <v>84.33078483832612</v>
+        <v>84.33078483832611</v>
       </c>
       <c r="J11" t="n">
-        <v>334.6053531969096</v>
+        <v>334.6053531969101</v>
       </c>
       <c r="K11" t="n">
-        <v>760.44057242338</v>
+        <v>760.4405724233807</v>
       </c>
       <c r="L11" t="n">
         <v>1325.628578657615</v>
@@ -5051,40 +5051,40 @@
         <v>1986.178573107417</v>
       </c>
       <c r="N11" t="n">
-        <v>2662.030765430007</v>
+        <v>2662.030765430008</v>
       </c>
       <c r="O11" t="n">
-        <v>3286.883564480951</v>
+        <v>3286.88356448095</v>
       </c>
       <c r="P11" t="n">
         <v>3785.679971131543</v>
       </c>
       <c r="Q11" t="n">
-        <v>4112.082553043417</v>
+        <v>4112.082553043416</v>
       </c>
       <c r="R11" t="n">
-        <v>4216.539241916306</v>
+        <v>4216.539241916305</v>
       </c>
       <c r="S11" t="n">
-        <v>4180.766812335047</v>
+        <v>4155.542560540209</v>
       </c>
       <c r="T11" t="n">
-        <v>4010.495346925722</v>
+        <v>3985.271095130884</v>
       </c>
       <c r="U11" t="n">
-        <v>3789.499334819574</v>
+        <v>3764.275083024736</v>
       </c>
       <c r="V11" t="n">
-        <v>3490.911867207848</v>
+        <v>3465.68761541301</v>
       </c>
       <c r="W11" t="n">
-        <v>3170.618631669579</v>
+        <v>3145.394379874741</v>
       </c>
       <c r="X11" t="n">
-        <v>2829.628293140344</v>
+        <v>2804.404041345506</v>
       </c>
       <c r="Y11" t="n">
-        <v>2471.964380896377</v>
+        <v>2446.740129101539</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>89.7418246596129</v>
       </c>
       <c r="I12" t="n">
-        <v>84.33078483832612</v>
+        <v>84.33078483832611</v>
       </c>
       <c r="J12" t="n">
-        <v>84.33078483832612</v>
+        <v>214.5747562432674</v>
       </c>
       <c r="K12" t="n">
-        <v>385.093301648842</v>
+        <v>515.3372730537832</v>
       </c>
       <c r="L12" t="n">
-        <v>835.8281630556352</v>
+        <v>966.0721344605763</v>
       </c>
       <c r="M12" t="n">
-        <v>863.39420975571</v>
+        <v>1437.57965787901</v>
       </c>
       <c r="N12" t="n">
         <v>1437.57965787901</v>
       </c>
       <c r="O12" t="n">
-        <v>1940.627371480544</v>
+        <v>1940.627371480545</v>
       </c>
       <c r="P12" t="n">
         <v>2325.034444872335</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.8736975202302</v>
+        <v>868.8736975202298</v>
       </c>
       <c r="C13" t="n">
-        <v>732.4129343241682</v>
+        <v>732.4129343241678</v>
       </c>
       <c r="D13" t="n">
-        <v>614.7717146436775</v>
+        <v>614.7717146436771</v>
       </c>
       <c r="E13" t="n">
-        <v>499.3340407931293</v>
+        <v>499.334040793129</v>
       </c>
       <c r="F13" t="n">
-        <v>384.9195130270639</v>
+        <v>384.9195130270637</v>
       </c>
       <c r="G13" t="n">
-        <v>250.0231649353859</v>
+        <v>250.0231649353857</v>
       </c>
       <c r="H13" t="n">
-        <v>139.2249005043559</v>
+        <v>139.224900504356</v>
       </c>
       <c r="I13" t="n">
-        <v>84.33078483832612</v>
+        <v>84.33078483832611</v>
       </c>
       <c r="J13" t="n">
-        <v>184.2233498194826</v>
+        <v>184.2233498194828</v>
       </c>
       <c r="K13" t="n">
-        <v>457.7384298899741</v>
+        <v>457.7384298899743</v>
       </c>
       <c r="L13" t="n">
         <v>854.3687929466628</v>
@@ -5236,7 +5236,7 @@
         <v>1658.819783501598</v>
       </c>
       <c r="W13" t="n">
-        <v>1401.878033196483</v>
+        <v>1401.878033196482</v>
       </c>
       <c r="X13" t="n">
         <v>1206.36390203031</v>
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2117.839960564101</v>
+        <v>2092.615708769262</v>
       </c>
       <c r="C14" t="n">
-        <v>1781.352863355534</v>
+        <v>1756.128611560695</v>
       </c>
       <c r="D14" t="n">
-        <v>1455.562584480628</v>
+        <v>1430.33833268579</v>
       </c>
       <c r="E14" t="n">
-        <v>1102.249751614229</v>
+        <v>1077.02549981939</v>
       </c>
       <c r="F14" t="n">
         <v>723.7392665564666</v>
@@ -5270,58 +5270,58 @@
         <v>341.8802972354459</v>
       </c>
       <c r="H14" t="n">
-        <v>84.33078483832611</v>
+        <v>84.3307848383261</v>
       </c>
       <c r="I14" t="n">
-        <v>84.33078483832611</v>
+        <v>84.3307848383261</v>
       </c>
       <c r="J14" t="n">
-        <v>334.605353196911</v>
+        <v>334.6053531969092</v>
       </c>
       <c r="K14" t="n">
-        <v>760.4405724233816</v>
+        <v>760.4405724233793</v>
       </c>
       <c r="L14" t="n">
-        <v>1325.628578657617</v>
+        <v>1325.628578657614</v>
       </c>
       <c r="M14" t="n">
-        <v>1986.178573107419</v>
+        <v>1986.178573107416</v>
       </c>
       <c r="N14" t="n">
-        <v>2662.03076543001</v>
+        <v>2662.030765430006</v>
       </c>
       <c r="O14" t="n">
-        <v>3286.883564480951</v>
+        <v>3286.883564480949</v>
       </c>
       <c r="P14" t="n">
-        <v>3785.679971131543</v>
+        <v>3785.679971131542</v>
       </c>
       <c r="Q14" t="n">
-        <v>4112.082553043416</v>
+        <v>4112.082553043415</v>
       </c>
       <c r="R14" t="n">
-        <v>4216.539241916305</v>
+        <v>4216.539241916304</v>
       </c>
       <c r="S14" t="n">
-        <v>4155.542560540209</v>
+        <v>4155.542560540208</v>
       </c>
       <c r="T14" t="n">
-        <v>3985.271095130884</v>
+        <v>3985.271095130883</v>
       </c>
       <c r="U14" t="n">
-        <v>3764.275083024736</v>
+        <v>3764.275083024735</v>
       </c>
       <c r="V14" t="n">
         <v>3465.68761541301</v>
       </c>
       <c r="W14" t="n">
-        <v>3170.618631669579</v>
+        <v>3145.39437987474</v>
       </c>
       <c r="X14" t="n">
-        <v>2829.628293140344</v>
+        <v>2804.404041345505</v>
       </c>
       <c r="Y14" t="n">
-        <v>2471.964380896377</v>
+        <v>2446.740129101539</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>176.429840497753</v>
       </c>
       <c r="H15" t="n">
-        <v>89.74182465961292</v>
+        <v>89.7418246596129</v>
       </c>
       <c r="I15" t="n">
-        <v>84.33078483832611</v>
+        <v>84.3307848383261</v>
       </c>
       <c r="J15" t="n">
-        <v>84.33078483832611</v>
+        <v>214.5747562432673</v>
       </c>
       <c r="K15" t="n">
-        <v>84.33078483832611</v>
+        <v>275.6121208135225</v>
       </c>
       <c r="L15" t="n">
-        <v>341.9399088285249</v>
+        <v>726.3469822203155</v>
       </c>
       <c r="M15" t="n">
-        <v>887.2831004725709</v>
+        <v>1271.690173864361</v>
       </c>
       <c r="N15" t="n">
-        <v>1461.468548595871</v>
+        <v>1845.875621987661</v>
       </c>
       <c r="O15" t="n">
-        <v>1964.516262197405</v>
+        <v>2348.923335589195</v>
       </c>
       <c r="P15" t="n">
         <v>2348.923335589195</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>868.8736975202302</v>
+        <v>868.8736975202299</v>
       </c>
       <c r="C16" t="n">
-        <v>732.4129343241682</v>
+        <v>732.412934324168</v>
       </c>
       <c r="D16" t="n">
-        <v>614.7717146436775</v>
+        <v>614.7717146436772</v>
       </c>
       <c r="E16" t="n">
-        <v>499.3340407931293</v>
+        <v>499.3340407931291</v>
       </c>
       <c r="F16" t="n">
-        <v>384.9195130270639</v>
+        <v>384.9195130270638</v>
       </c>
       <c r="G16" t="n">
-        <v>250.0231649353859</v>
+        <v>250.0231649353858</v>
       </c>
       <c r="H16" t="n">
         <v>139.224900504356</v>
       </c>
       <c r="I16" t="n">
-        <v>84.33078483832611</v>
+        <v>84.3307848383261</v>
       </c>
       <c r="J16" t="n">
-        <v>184.2233498194836</v>
+        <v>184.2233498194826</v>
       </c>
       <c r="K16" t="n">
-        <v>457.738429889975</v>
+        <v>457.7384298899744</v>
       </c>
       <c r="L16" t="n">
-        <v>854.3687929466635</v>
+        <v>854.368792946663</v>
       </c>
       <c r="M16" t="n">
-        <v>1281.218795822443</v>
+        <v>1281.218795822442</v>
       </c>
       <c r="N16" t="n">
         <v>1704.110702364835</v>
@@ -5452,19 +5452,19 @@
         <v>2081.133308536367</v>
       </c>
       <c r="P16" t="n">
-        <v>2384.814413356042</v>
+        <v>2384.814413356041</v>
       </c>
       <c r="Q16" t="n">
-        <v>2521.424688258713</v>
+        <v>2521.424688258712</v>
       </c>
       <c r="R16" t="n">
         <v>2478.955707961681</v>
       </c>
       <c r="S16" t="n">
-        <v>2325.514869820082</v>
+        <v>2325.514869820081</v>
       </c>
       <c r="T16" t="n">
-        <v>2137.638240819874</v>
+        <v>2137.638240819873</v>
       </c>
       <c r="U16" t="n">
         <v>1881.02885197564</v>
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2107.029566937741</v>
+        <v>2107.029566937743</v>
       </c>
       <c r="C17" t="n">
         <v>1772.344202000235</v>
@@ -5504,31 +5504,31 @@
         <v>720.1358020143468</v>
       </c>
       <c r="G17" t="n">
-        <v>340.0785649643859</v>
+        <v>340.078564964386</v>
       </c>
       <c r="H17" t="n">
         <v>84.33078483832611</v>
       </c>
       <c r="I17" t="n">
-        <v>84.33078483832688</v>
+        <v>84.33078483832611</v>
       </c>
       <c r="J17" t="n">
-        <v>334.6053531969104</v>
+        <v>334.6053531969096</v>
       </c>
       <c r="K17" t="n">
-        <v>760.4405724233807</v>
+        <v>760.4405724233798</v>
       </c>
       <c r="L17" t="n">
         <v>1325.628578657615</v>
       </c>
       <c r="M17" t="n">
-        <v>1986.178573107417</v>
+        <v>1986.178573107416</v>
       </c>
       <c r="N17" t="n">
-        <v>2662.030765430008</v>
+        <v>2662.030765430007</v>
       </c>
       <c r="O17" t="n">
-        <v>3286.88356448095</v>
+        <v>3286.883564480951</v>
       </c>
       <c r="P17" t="n">
         <v>3785.679971131543</v>
@@ -5540,25 +5540,25 @@
         <v>4216.539241916305</v>
       </c>
       <c r="S17" t="n">
-        <v>4157.344292811268</v>
+        <v>4157.344292811269</v>
       </c>
       <c r="T17" t="n">
-        <v>3988.874559673003</v>
+        <v>3988.874559673004</v>
       </c>
       <c r="U17" t="n">
-        <v>3769.680279837915</v>
+        <v>3769.680279837916</v>
       </c>
       <c r="V17" t="n">
-        <v>3472.894544497249</v>
+        <v>3472.894544497251</v>
       </c>
       <c r="W17" t="n">
-        <v>3154.40304123004</v>
+        <v>3154.403041230041</v>
       </c>
       <c r="X17" t="n">
-        <v>2815.214434971865</v>
+        <v>2815.214434971866</v>
       </c>
       <c r="Y17" t="n">
-        <v>2459.352254998958</v>
+        <v>2459.35225499896</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>176.429840497753</v>
       </c>
       <c r="H18" t="n">
-        <v>89.7418246596129</v>
+        <v>89.74182465961292</v>
       </c>
       <c r="I18" t="n">
         <v>84.33078483832611</v>
       </c>
       <c r="J18" t="n">
-        <v>214.5747562432674</v>
+        <v>214.5747562432673</v>
       </c>
       <c r="K18" t="n">
-        <v>515.3372730537832</v>
+        <v>214.5747562432673</v>
       </c>
       <c r="L18" t="n">
-        <v>966.0721344605763</v>
+        <v>318.0510181116651</v>
       </c>
       <c r="M18" t="n">
-        <v>1511.415326104623</v>
+        <v>863.3942097557111</v>
       </c>
       <c r="N18" t="n">
-        <v>2085.600774227923</v>
+        <v>1437.579657879011</v>
       </c>
       <c r="O18" t="n">
-        <v>2555.970087633199</v>
+        <v>1940.627371480545</v>
       </c>
       <c r="P18" t="n">
-        <v>2555.970087633199</v>
+        <v>2325.034444872335</v>
       </c>
       <c r="Q18" t="n">
-        <v>2555.970087633199</v>
+        <v>2532.081196916339</v>
       </c>
       <c r="R18" t="n">
         <v>2555.970087633199</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>856.2615716228106</v>
+        <v>856.2615716228104</v>
       </c>
       <c r="C19" t="n">
-        <v>721.6025406978086</v>
+        <v>721.6025406978084</v>
       </c>
       <c r="D19" t="n">
-        <v>605.7630532883778</v>
+        <v>605.7630532883776</v>
       </c>
       <c r="E19" t="n">
-        <v>492.1271117088896</v>
+        <v>492.1271117088894</v>
       </c>
       <c r="F19" t="n">
-        <v>379.5143162138842</v>
+        <v>379.5143162138839</v>
       </c>
       <c r="G19" t="n">
-        <v>246.4197003932661</v>
+        <v>246.4197003932659</v>
       </c>
       <c r="H19" t="n">
         <v>137.4231682332961</v>
@@ -5671,40 +5671,40 @@
         <v>84.33078483832611</v>
       </c>
       <c r="J19" t="n">
-        <v>152.6893487088524</v>
+        <v>185.9892276183485</v>
       </c>
       <c r="K19" t="n">
-        <v>418.3154467598204</v>
+        <v>461.2701854877057</v>
       </c>
       <c r="L19" t="n">
-        <v>816.7116876153748</v>
+        <v>859.6664263432601</v>
       </c>
       <c r="M19" t="n">
-        <v>1245.32756829002</v>
+        <v>1288.282307017905</v>
       </c>
       <c r="N19" t="n">
-        <v>1669.985352631278</v>
+        <v>1712.940091359163</v>
       </c>
       <c r="O19" t="n">
-        <v>2048.773836601676</v>
+        <v>2048.773836601675</v>
       </c>
       <c r="P19" t="n">
-        <v>2354.220819220217</v>
+        <v>2354.220819220216</v>
       </c>
       <c r="Q19" t="n">
-        <v>2492.596971921753</v>
+        <v>2492.596971921752</v>
       </c>
       <c r="R19" t="n">
-        <v>2451.929723895782</v>
+        <v>2451.929723895781</v>
       </c>
       <c r="S19" t="n">
-        <v>2300.290618025243</v>
+        <v>2300.290618025242</v>
       </c>
       <c r="T19" t="n">
-        <v>2114.215721296095</v>
+        <v>2114.215721296094</v>
       </c>
       <c r="U19" t="n">
-        <v>1859.408064722921</v>
+        <v>1859.40806472292</v>
       </c>
       <c r="V19" t="n">
         <v>1639.000728519939</v>
@@ -5713,7 +5713,7 @@
         <v>1383.860710485883</v>
       </c>
       <c r="X19" t="n">
-        <v>1190.148311590771</v>
+        <v>1190.14831159077</v>
       </c>
       <c r="Y19" t="n">
         <v>1003.632884450145</v>
@@ -5729,43 +5729,43 @@
         <v>2107.029566937741</v>
       </c>
       <c r="C20" t="n">
-        <v>1772.344202000234</v>
+        <v>1772.344202000235</v>
       </c>
       <c r="D20" t="n">
-        <v>1448.355655396388</v>
+        <v>1448.355655396389</v>
       </c>
       <c r="E20" t="n">
-        <v>1096.844554801049</v>
+        <v>1096.84455480105</v>
       </c>
       <c r="F20" t="n">
-        <v>720.1358020143466</v>
+        <v>720.1358020143473</v>
       </c>
       <c r="G20" t="n">
-        <v>340.0785649643858</v>
+        <v>340.0785649643859</v>
       </c>
       <c r="H20" t="n">
-        <v>84.33078483832611</v>
+        <v>84.3307848383261</v>
       </c>
       <c r="I20" t="n">
-        <v>84.33078483832611</v>
+        <v>84.3307848383261</v>
       </c>
       <c r="J20" t="n">
-        <v>334.6053531969095</v>
+        <v>334.6053531969101</v>
       </c>
       <c r="K20" t="n">
-        <v>760.4405724233798</v>
+        <v>760.4405724233802</v>
       </c>
       <c r="L20" t="n">
         <v>1325.628578657615</v>
       </c>
       <c r="M20" t="n">
-        <v>1986.178573107418</v>
+        <v>1986.178573107417</v>
       </c>
       <c r="N20" t="n">
         <v>2662.030765430008</v>
       </c>
       <c r="O20" t="n">
-        <v>3286.883564480951</v>
+        <v>3286.88356448095</v>
       </c>
       <c r="P20" t="n">
         <v>3785.679971131543</v>
@@ -5774,25 +5774,25 @@
         <v>4112.082553043416</v>
       </c>
       <c r="R20" t="n">
-        <v>4216.539241916305</v>
+        <v>4216.539241916304</v>
       </c>
       <c r="S20" t="n">
-        <v>4157.344292811269</v>
+        <v>4157.344292811268</v>
       </c>
       <c r="T20" t="n">
-        <v>3988.874559673004</v>
+        <v>3988.874559673003</v>
       </c>
       <c r="U20" t="n">
-        <v>3769.680279837914</v>
+        <v>3769.680279837915</v>
       </c>
       <c r="V20" t="n">
-        <v>3472.894544497248</v>
+        <v>3472.894544497249</v>
       </c>
       <c r="W20" t="n">
-        <v>3154.403041230039</v>
+        <v>3154.40304123004</v>
       </c>
       <c r="X20" t="n">
-        <v>2815.214434971864</v>
+        <v>2815.214434971865</v>
       </c>
       <c r="Y20" t="n">
         <v>2459.352254998958</v>
@@ -5826,22 +5826,22 @@
         <v>89.7418246596129</v>
       </c>
       <c r="I21" t="n">
-        <v>84.33078483832611</v>
+        <v>84.3307848383261</v>
       </c>
       <c r="J21" t="n">
-        <v>84.33078483832611</v>
+        <v>84.3307848383261</v>
       </c>
       <c r="K21" t="n">
-        <v>84.33078483832611</v>
+        <v>385.0933016488419</v>
       </c>
       <c r="L21" t="n">
-        <v>318.0510181116646</v>
+        <v>835.8281630556348</v>
       </c>
       <c r="M21" t="n">
-        <v>863.3942097557108</v>
+        <v>1381.171354699681</v>
       </c>
       <c r="N21" t="n">
-        <v>1437.57965787901</v>
+        <v>1940.627371480545</v>
       </c>
       <c r="O21" t="n">
         <v>1940.627371480545</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>856.2615716228097</v>
+        <v>856.2615716228104</v>
       </c>
       <c r="C22" t="n">
-        <v>721.6025406978079</v>
+        <v>721.6025406978084</v>
       </c>
       <c r="D22" t="n">
-        <v>605.7630532883771</v>
+        <v>605.7630532883776</v>
       </c>
       <c r="E22" t="n">
-        <v>492.1271117088891</v>
+        <v>492.1271117088894</v>
       </c>
       <c r="F22" t="n">
-        <v>379.5143162138837</v>
+        <v>379.5143162138839</v>
       </c>
       <c r="G22" t="n">
-        <v>246.4197003932658</v>
+        <v>246.4197003932659</v>
       </c>
       <c r="H22" t="n">
-        <v>137.423168233296</v>
+        <v>137.4231682332961</v>
       </c>
       <c r="I22" t="n">
-        <v>84.33078483832611</v>
+        <v>84.3307848383261</v>
       </c>
       <c r="J22" t="n">
-        <v>152.6893487088525</v>
+        <v>152.6893487088524</v>
       </c>
       <c r="K22" t="n">
-        <v>418.3154467598173</v>
+        <v>418.3154467598195</v>
       </c>
       <c r="L22" t="n">
-        <v>816.7116876153718</v>
+        <v>816.7116876153739</v>
       </c>
       <c r="M22" t="n">
-        <v>1245.327568290017</v>
+        <v>1245.327568290019</v>
       </c>
       <c r="N22" t="n">
-        <v>1669.985352631276</v>
+        <v>1669.985352631277</v>
       </c>
       <c r="O22" t="n">
-        <v>2048.773836601674</v>
+        <v>2048.773836601675</v>
       </c>
       <c r="P22" t="n">
-        <v>2354.220819220214</v>
+        <v>2354.220819220216</v>
       </c>
       <c r="Q22" t="n">
-        <v>2492.596971921751</v>
+        <v>2492.596971921752</v>
       </c>
       <c r="R22" t="n">
-        <v>2451.92972389578</v>
+        <v>2451.929723895781</v>
       </c>
       <c r="S22" t="n">
-        <v>2300.290618025241</v>
+        <v>2300.290618025242</v>
       </c>
       <c r="T22" t="n">
-        <v>2114.215721296093</v>
+        <v>2114.215721296094</v>
       </c>
       <c r="U22" t="n">
-        <v>1859.408064722919</v>
+        <v>1859.40806472292</v>
       </c>
       <c r="V22" t="n">
-        <v>1639.000728519937</v>
+        <v>1639.000728519939</v>
       </c>
       <c r="W22" t="n">
-        <v>1383.860710485882</v>
+        <v>1383.860710485883</v>
       </c>
       <c r="X22" t="n">
-        <v>1190.148311590769</v>
+        <v>1190.14831159077</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.632884450144</v>
+        <v>1003.632884450145</v>
       </c>
     </row>
     <row r="23">
@@ -5975,61 +5975,61 @@
         <v>1096.84455480105</v>
       </c>
       <c r="F23" t="n">
-        <v>720.1358020143471</v>
+        <v>720.1358020143468</v>
       </c>
       <c r="G23" t="n">
-        <v>340.0785649643861</v>
+        <v>340.0785649643859</v>
       </c>
       <c r="H23" t="n">
-        <v>84.33078483832612</v>
+        <v>84.3307848383261</v>
       </c>
       <c r="I23" t="n">
-        <v>84.33078483832612</v>
+        <v>84.3307848383261</v>
       </c>
       <c r="J23" t="n">
-        <v>334.605353196911</v>
+        <v>334.6053531969095</v>
       </c>
       <c r="K23" t="n">
-        <v>760.4405724233816</v>
+        <v>760.4405724233798</v>
       </c>
       <c r="L23" t="n">
-        <v>1325.628578657616</v>
+        <v>1325.628578657615</v>
       </c>
       <c r="M23" t="n">
-        <v>1986.178573107418</v>
+        <v>1986.178573107416</v>
       </c>
       <c r="N23" t="n">
-        <v>2662.030765430009</v>
+        <v>2662.030765430007</v>
       </c>
       <c r="O23" t="n">
-        <v>3286.883564480951</v>
+        <v>3286.883564480949</v>
       </c>
       <c r="P23" t="n">
-        <v>3785.679971131544</v>
+        <v>3785.679971131543</v>
       </c>
       <c r="Q23" t="n">
-        <v>4112.082553043417</v>
+        <v>4112.082553043416</v>
       </c>
       <c r="R23" t="n">
-        <v>4216.539241916306</v>
+        <v>4216.539241916304</v>
       </c>
       <c r="S23" t="n">
-        <v>4157.34429281127</v>
+        <v>4157.344292811267</v>
       </c>
       <c r="T23" t="n">
-        <v>3988.874559673005</v>
+        <v>3988.874559673003</v>
       </c>
       <c r="U23" t="n">
-        <v>3769.680279837916</v>
+        <v>3769.680279837915</v>
       </c>
       <c r="V23" t="n">
-        <v>3472.89454449725</v>
+        <v>3472.894544497249</v>
       </c>
       <c r="W23" t="n">
-        <v>3154.403041230041</v>
+        <v>3154.40304123004</v>
       </c>
       <c r="X23" t="n">
-        <v>2815.214434971866</v>
+        <v>2815.214434971865</v>
       </c>
       <c r="Y23" t="n">
         <v>2459.352254998958</v>
@@ -6060,22 +6060,22 @@
         <v>176.429840497753</v>
       </c>
       <c r="H24" t="n">
-        <v>89.74182465961292</v>
+        <v>89.74182465961289</v>
       </c>
       <c r="I24" t="n">
-        <v>84.33078483832612</v>
+        <v>84.3307848383261</v>
       </c>
       <c r="J24" t="n">
-        <v>214.5747562432674</v>
+        <v>84.3307848383261</v>
       </c>
       <c r="K24" t="n">
-        <v>318.0510181116646</v>
+        <v>385.0933016488419</v>
       </c>
       <c r="L24" t="n">
-        <v>318.0510181116646</v>
+        <v>835.8281630556351</v>
       </c>
       <c r="M24" t="n">
-        <v>863.3942097557108</v>
+        <v>1381.171354699681</v>
       </c>
       <c r="N24" t="n">
         <v>1437.57965787901</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>856.2615716228113</v>
+        <v>856.2615716228104</v>
       </c>
       <c r="C25" t="n">
-        <v>721.6025406978092</v>
+        <v>721.6025406978084</v>
       </c>
       <c r="D25" t="n">
-        <v>605.7630532883783</v>
+        <v>605.7630532883776</v>
       </c>
       <c r="E25" t="n">
-        <v>492.12711170889</v>
+        <v>492.1271117088894</v>
       </c>
       <c r="F25" t="n">
-        <v>379.5143162138844</v>
+        <v>379.5143162138839</v>
       </c>
       <c r="G25" t="n">
-        <v>246.4197003932662</v>
+        <v>246.4197003932659</v>
       </c>
       <c r="H25" t="n">
-        <v>137.4231682332962</v>
+        <v>137.4231682332961</v>
       </c>
       <c r="I25" t="n">
-        <v>84.33078483832612</v>
+        <v>84.3307848383261</v>
       </c>
       <c r="J25" t="n">
-        <v>152.6893487088523</v>
+        <v>185.9892276183485</v>
       </c>
       <c r="K25" t="n">
-        <v>427.9703065782094</v>
+        <v>461.2701854877058</v>
       </c>
       <c r="L25" t="n">
-        <v>826.3665474337638</v>
+        <v>859.6664263432602</v>
       </c>
       <c r="M25" t="n">
-        <v>1254.982428108409</v>
+        <v>1288.282307017905</v>
       </c>
       <c r="N25" t="n">
-        <v>1669.98535263128</v>
+        <v>1669.985352631277</v>
       </c>
       <c r="O25" t="n">
-        <v>2048.773836601678</v>
+        <v>2048.773836601675</v>
       </c>
       <c r="P25" t="n">
-        <v>2354.220819220219</v>
+        <v>2354.220819220216</v>
       </c>
       <c r="Q25" t="n">
-        <v>2492.596971921755</v>
+        <v>2492.596971921752</v>
       </c>
       <c r="R25" t="n">
-        <v>2451.929723895783</v>
+        <v>2451.929723895781</v>
       </c>
       <c r="S25" t="n">
-        <v>2300.290618025244</v>
+        <v>2300.290618025242</v>
       </c>
       <c r="T25" t="n">
-        <v>2114.215721296096</v>
+        <v>2114.215721296094</v>
       </c>
       <c r="U25" t="n">
-        <v>1859.408064722922</v>
+        <v>1859.40806472292</v>
       </c>
       <c r="V25" t="n">
-        <v>1639.00072851994</v>
+        <v>1639.000728519939</v>
       </c>
       <c r="W25" t="n">
-        <v>1383.860710485884</v>
+        <v>1383.860710485883</v>
       </c>
       <c r="X25" t="n">
-        <v>1190.148311590772</v>
+        <v>1190.14831159077</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.632884450146</v>
+        <v>1003.632884450145</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>698.5150147616298</v>
       </c>
       <c r="G26" t="n">
-        <v>316.656045440609</v>
+        <v>341.8802972354459</v>
       </c>
       <c r="H26" t="n">
         <v>84.33078483832612</v>
@@ -6224,25 +6224,25 @@
         <v>84.33078483832612</v>
       </c>
       <c r="J26" t="n">
-        <v>334.605353196911</v>
+        <v>334.6053531969096</v>
       </c>
       <c r="K26" t="n">
-        <v>760.4405724233816</v>
+        <v>760.4405724233798</v>
       </c>
       <c r="L26" t="n">
-        <v>1325.628578657616</v>
+        <v>1325.628578657614</v>
       </c>
       <c r="M26" t="n">
-        <v>1986.178573107418</v>
+        <v>1986.178573107416</v>
       </c>
       <c r="N26" t="n">
-        <v>2662.030765430009</v>
+        <v>2662.030765430007</v>
       </c>
       <c r="O26" t="n">
-        <v>3286.883564480951</v>
+        <v>3286.883564480949</v>
       </c>
       <c r="P26" t="n">
-        <v>3785.679971131544</v>
+        <v>3785.679971131543</v>
       </c>
       <c r="Q26" t="n">
         <v>4112.082553043417</v>
@@ -6306,13 +6306,13 @@
         <v>84.33078483832612</v>
       </c>
       <c r="K27" t="n">
-        <v>84.33078483832612</v>
+        <v>385.0933016488419</v>
       </c>
       <c r="L27" t="n">
-        <v>318.0510181116646</v>
+        <v>835.8281630556351</v>
       </c>
       <c r="M27" t="n">
-        <v>863.3942097557108</v>
+        <v>1381.171354699681</v>
       </c>
       <c r="N27" t="n">
         <v>1437.57965787901</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>868.8736975202303</v>
+        <v>868.8736975202296</v>
       </c>
       <c r="C28" t="n">
-        <v>732.4129343241683</v>
+        <v>732.4129343241676</v>
       </c>
       <c r="D28" t="n">
-        <v>614.7717146436776</v>
+        <v>614.7717146436769</v>
       </c>
       <c r="E28" t="n">
-        <v>499.3340407931295</v>
+        <v>499.3340407931288</v>
       </c>
       <c r="F28" t="n">
-        <v>384.9195130270641</v>
+        <v>384.9195130270634</v>
       </c>
       <c r="G28" t="n">
-        <v>250.0231649353858</v>
+        <v>250.0231649353859</v>
       </c>
       <c r="H28" t="n">
         <v>139.224900504356</v>
@@ -6382,13 +6382,13 @@
         <v>84.33078483832612</v>
       </c>
       <c r="J28" t="n">
-        <v>184.2233498194827</v>
+        <v>184.2233498194828</v>
       </c>
       <c r="K28" t="n">
-        <v>457.7384298899742</v>
+        <v>457.7384298899743</v>
       </c>
       <c r="L28" t="n">
-        <v>854.3687929466629</v>
+        <v>854.3687929466626</v>
       </c>
       <c r="M28" t="n">
         <v>1281.218795822442</v>
@@ -6397,7 +6397,7 @@
         <v>1704.110702364835</v>
       </c>
       <c r="O28" t="n">
-        <v>2081.133308536366</v>
+        <v>2081.133308536367</v>
       </c>
       <c r="P28" t="n">
         <v>2384.814413356041</v>
@@ -6406,13 +6406,13 @@
         <v>2521.424688258712</v>
       </c>
       <c r="R28" t="n">
-        <v>2478.95570796168</v>
+        <v>2478.955707961681</v>
       </c>
       <c r="S28" t="n">
-        <v>2325.514869820081</v>
+        <v>2325.514869820082</v>
       </c>
       <c r="T28" t="n">
-        <v>2137.638240819874</v>
+        <v>2137.638240819873</v>
       </c>
       <c r="U28" t="n">
         <v>1881.02885197564</v>
@@ -6427,7 +6427,7 @@
         <v>1206.36390203031</v>
       </c>
       <c r="Y28" t="n">
-        <v>1018.046742618625</v>
+        <v>1018.046742618624</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2117.839960564101</v>
+        <v>2092.615708769264</v>
       </c>
       <c r="C29" t="n">
-        <v>1781.352863355534</v>
+        <v>1756.128611560697</v>
       </c>
       <c r="D29" t="n">
-        <v>1455.562584480628</v>
+        <v>1430.338332685791</v>
       </c>
       <c r="E29" t="n">
-        <v>1102.249751614229</v>
+        <v>1077.025499819392</v>
       </c>
       <c r="F29" t="n">
-        <v>723.7392665564666</v>
+        <v>698.5150147616296</v>
       </c>
       <c r="G29" t="n">
         <v>341.8802972354459</v>
@@ -6461,19 +6461,19 @@
         <v>84.33078483832612</v>
       </c>
       <c r="J29" t="n">
-        <v>334.6053531969092</v>
+        <v>334.605353196911</v>
       </c>
       <c r="K29" t="n">
-        <v>760.4405724233795</v>
+        <v>760.4405724233811</v>
       </c>
       <c r="L29" t="n">
-        <v>1325.628578657614</v>
+        <v>1325.628578657616</v>
       </c>
       <c r="M29" t="n">
-        <v>1986.178573107417</v>
+        <v>1986.178573107418</v>
       </c>
       <c r="N29" t="n">
-        <v>2662.030765430007</v>
+        <v>2662.030765430008</v>
       </c>
       <c r="O29" t="n">
         <v>3286.883564480951</v>
@@ -6494,19 +6494,19 @@
         <v>3985.271095130885</v>
       </c>
       <c r="U29" t="n">
-        <v>3789.499334819574</v>
+        <v>3764.275083024737</v>
       </c>
       <c r="V29" t="n">
-        <v>3490.911867207848</v>
+        <v>3465.687615413011</v>
       </c>
       <c r="W29" t="n">
-        <v>3170.618631669579</v>
+        <v>3145.394379874742</v>
       </c>
       <c r="X29" t="n">
-        <v>2829.628293140344</v>
+        <v>2804.404041345507</v>
       </c>
       <c r="Y29" t="n">
-        <v>2471.964380896377</v>
+        <v>2446.74012910154</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>84.33078483832612</v>
       </c>
       <c r="J30" t="n">
-        <v>84.33078483832612</v>
+        <v>214.5747562432674</v>
       </c>
       <c r="K30" t="n">
-        <v>385.0933016488419</v>
+        <v>412.6593483489177</v>
       </c>
       <c r="L30" t="n">
-        <v>835.8281630556351</v>
+        <v>863.3942097557108</v>
       </c>
       <c r="M30" t="n">
-        <v>1381.171354699681</v>
+        <v>863.3942097557108</v>
       </c>
       <c r="N30" t="n">
-        <v>1955.356802822981</v>
+        <v>1437.57965787901</v>
       </c>
       <c r="O30" t="n">
-        <v>2458.404516424515</v>
+        <v>1940.627371480545</v>
       </c>
       <c r="P30" t="n">
-        <v>2555.970087633199</v>
+        <v>2325.034444872335</v>
       </c>
       <c r="Q30" t="n">
-        <v>2555.970087633199</v>
+        <v>2532.081196916339</v>
       </c>
       <c r="R30" t="n">
         <v>2555.970087633199</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>868.8736975202305</v>
+        <v>868.8736975202302</v>
       </c>
       <c r="C31" t="n">
-        <v>732.4129343241686</v>
+        <v>732.4129343241682</v>
       </c>
       <c r="D31" t="n">
-        <v>614.7717146436778</v>
+        <v>614.7717146436775</v>
       </c>
       <c r="E31" t="n">
-        <v>499.3340407931295</v>
+        <v>499.3340407931293</v>
       </c>
       <c r="F31" t="n">
-        <v>384.9195130270641</v>
+        <v>384.9195130270639</v>
       </c>
       <c r="G31" t="n">
-        <v>250.0231649353861</v>
+        <v>250.0231649353859</v>
       </c>
       <c r="H31" t="n">
-        <v>139.224900504356</v>
+        <v>139.2249005043561</v>
       </c>
       <c r="I31" t="n">
         <v>84.33078483832612</v>
       </c>
       <c r="J31" t="n">
-        <v>184.2233498194825</v>
+        <v>184.2233498194828</v>
       </c>
       <c r="K31" t="n">
-        <v>457.7384298899739</v>
+        <v>457.7384298899742</v>
       </c>
       <c r="L31" t="n">
-        <v>854.3687929466626</v>
+        <v>854.3687929466628</v>
       </c>
       <c r="M31" t="n">
         <v>1281.218795822442</v>
@@ -6637,7 +6637,7 @@
         <v>2081.133308536367</v>
       </c>
       <c r="P31" t="n">
-        <v>2384.814413356042</v>
+        <v>2384.814413356041</v>
       </c>
       <c r="Q31" t="n">
         <v>2521.424688258712</v>
@@ -6646,22 +6646,22 @@
         <v>2478.955707961681</v>
       </c>
       <c r="S31" t="n">
-        <v>2325.514869820082</v>
+        <v>2325.514869820081</v>
       </c>
       <c r="T31" t="n">
-        <v>2137.638240819874</v>
+        <v>2137.638240819873</v>
       </c>
       <c r="U31" t="n">
         <v>1881.02885197564</v>
       </c>
       <c r="V31" t="n">
-        <v>1658.819783501599</v>
+        <v>1658.819783501598</v>
       </c>
       <c r="W31" t="n">
-        <v>1401.878033196483</v>
+        <v>1401.878033196482</v>
       </c>
       <c r="X31" t="n">
-        <v>1206.363902030311</v>
+        <v>1206.36390203031</v>
       </c>
       <c r="Y31" t="n">
         <v>1018.046742618625</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2107.029566937742</v>
+        <v>2107.029566937743</v>
       </c>
       <c r="C32" t="n">
-        <v>1772.344202000235</v>
+        <v>1772.344202000236</v>
       </c>
       <c r="D32" t="n">
         <v>1448.35565539639</v>
       </c>
       <c r="E32" t="n">
-        <v>1096.84455480105</v>
+        <v>1096.844554801051</v>
       </c>
       <c r="F32" t="n">
-        <v>720.1358020143475</v>
+        <v>720.1358020143481</v>
       </c>
       <c r="G32" t="n">
         <v>340.078564964386</v>
@@ -6698,22 +6698,22 @@
         <v>84.33078483832612</v>
       </c>
       <c r="J32" t="n">
-        <v>334.6053531969096</v>
+        <v>334.6053531969101</v>
       </c>
       <c r="K32" t="n">
-        <v>760.4405724233798</v>
+        <v>760.4405724233807</v>
       </c>
       <c r="L32" t="n">
         <v>1325.628578657615</v>
       </c>
       <c r="M32" t="n">
-        <v>1986.178573107416</v>
+        <v>1986.178573107417</v>
       </c>
       <c r="N32" t="n">
-        <v>2662.030765430007</v>
+        <v>2662.030765430008</v>
       </c>
       <c r="O32" t="n">
-        <v>3286.883564480949</v>
+        <v>3286.88356448095</v>
       </c>
       <c r="P32" t="n">
         <v>3785.679971131543</v>
@@ -6734,7 +6734,7 @@
         <v>3769.680279837916</v>
       </c>
       <c r="V32" t="n">
-        <v>3472.89454449725</v>
+        <v>3472.894544497251</v>
       </c>
       <c r="W32" t="n">
         <v>3154.403041230041</v>
@@ -6743,7 +6743,7 @@
         <v>2815.214434971866</v>
       </c>
       <c r="Y32" t="n">
-        <v>2459.352254998959</v>
+        <v>2459.35225499896</v>
       </c>
     </row>
     <row r="33">
@@ -6777,19 +6777,19 @@
         <v>84.33078483832612</v>
       </c>
       <c r="J33" t="n">
-        <v>84.33078483832612</v>
+        <v>214.5747562432674</v>
       </c>
       <c r="K33" t="n">
-        <v>318.0510181116646</v>
+        <v>515.3372730537833</v>
       </c>
       <c r="L33" t="n">
-        <v>318.0510181116646</v>
+        <v>966.0721344605763</v>
       </c>
       <c r="M33" t="n">
-        <v>863.3942097557108</v>
+        <v>1366.441923357245</v>
       </c>
       <c r="N33" t="n">
-        <v>1437.57965787901</v>
+        <v>1940.627371480545</v>
       </c>
       <c r="O33" t="n">
         <v>1940.627371480545</v>
@@ -6859,22 +6859,22 @@
         <v>185.9892276183485</v>
       </c>
       <c r="K34" t="n">
-        <v>461.2701854877057</v>
+        <v>418.3154467598208</v>
       </c>
       <c r="L34" t="n">
-        <v>859.6664263432601</v>
+        <v>816.7116876153752</v>
       </c>
       <c r="M34" t="n">
-        <v>1288.282307017905</v>
+        <v>1245.32756829002</v>
       </c>
       <c r="N34" t="n">
-        <v>1712.940091359163</v>
+        <v>1669.985352631279</v>
       </c>
       <c r="O34" t="n">
-        <v>2091.728575329561</v>
+        <v>2048.773836601677</v>
       </c>
       <c r="P34" t="n">
-        <v>2397.175557948102</v>
+        <v>2354.220819220217</v>
       </c>
       <c r="Q34" t="n">
         <v>2492.596971921754</v>
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2107.029566937741</v>
+        <v>2107.029566937742</v>
       </c>
       <c r="C35" t="n">
-        <v>1772.344202000235</v>
+        <v>1772.344202000236</v>
       </c>
       <c r="D35" t="n">
-        <v>1448.355655396389</v>
+        <v>1448.35565539639</v>
       </c>
       <c r="E35" t="n">
         <v>1096.84455480105</v>
       </c>
       <c r="F35" t="n">
-        <v>720.1358020143472</v>
+        <v>720.1358020143477</v>
       </c>
       <c r="G35" t="n">
-        <v>340.0785649643861</v>
+        <v>340.078564964386</v>
       </c>
       <c r="H35" t="n">
         <v>84.33078483832612</v>
@@ -6974,13 +6974,13 @@
         <v>3472.894544497251</v>
       </c>
       <c r="W35" t="n">
-        <v>3154.403041230041</v>
+        <v>3154.403041230042</v>
       </c>
       <c r="X35" t="n">
         <v>2815.214434971866</v>
       </c>
       <c r="Y35" t="n">
-        <v>2459.352254998958</v>
+        <v>2459.352254998959</v>
       </c>
     </row>
     <row r="36">
@@ -7017,16 +7017,16 @@
         <v>214.5747562432674</v>
       </c>
       <c r="K36" t="n">
-        <v>214.5747562432674</v>
+        <v>515.3372730537833</v>
       </c>
       <c r="L36" t="n">
-        <v>318.0510181116646</v>
+        <v>821.0987317131986</v>
       </c>
       <c r="M36" t="n">
-        <v>863.3942097557108</v>
+        <v>1366.441923357245</v>
       </c>
       <c r="N36" t="n">
-        <v>1437.57965787901</v>
+        <v>1940.627371480545</v>
       </c>
       <c r="O36" t="n">
         <v>1940.627371480545</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>856.2615716228119</v>
+        <v>856.2615716228111</v>
       </c>
       <c r="C37" t="n">
-        <v>721.6025406978097</v>
+        <v>721.602540697809</v>
       </c>
       <c r="D37" t="n">
-        <v>605.7630532883786</v>
+        <v>605.763053288378</v>
       </c>
       <c r="E37" t="n">
-        <v>492.1271117088902</v>
+        <v>492.1271117088897</v>
       </c>
       <c r="F37" t="n">
-        <v>379.5143162138846</v>
+        <v>379.5143162138842</v>
       </c>
       <c r="G37" t="n">
-        <v>246.4197003932663</v>
+        <v>246.4197003932661</v>
       </c>
       <c r="H37" t="n">
-        <v>137.4231682332963</v>
+        <v>137.4231682332962</v>
       </c>
       <c r="I37" t="n">
         <v>84.33078483832612</v>
       </c>
       <c r="J37" t="n">
-        <v>185.9892276183484</v>
+        <v>185.9892276183485</v>
       </c>
       <c r="K37" t="n">
-        <v>461.2701854877054</v>
+        <v>461.2701854877057</v>
       </c>
       <c r="L37" t="n">
-        <v>859.6664263432597</v>
+        <v>859.6664263432601</v>
       </c>
       <c r="M37" t="n">
-        <v>1288.282307017905</v>
+        <v>1245.327568290021</v>
       </c>
       <c r="N37" t="n">
-        <v>1712.940091359163</v>
+        <v>1669.985352631279</v>
       </c>
       <c r="O37" t="n">
-        <v>2091.728575329561</v>
+        <v>2048.773836601677</v>
       </c>
       <c r="P37" t="n">
-        <v>2397.175557948101</v>
+        <v>2354.220819220217</v>
       </c>
       <c r="Q37" t="n">
-        <v>2492.596971921756</v>
+        <v>2492.596971921754</v>
       </c>
       <c r="R37" t="n">
-        <v>2451.929723895785</v>
+        <v>2451.929723895783</v>
       </c>
       <c r="S37" t="n">
-        <v>2300.290618025245</v>
+        <v>2300.290618025244</v>
       </c>
       <c r="T37" t="n">
-        <v>2114.215721296097</v>
+        <v>2114.215721296096</v>
       </c>
       <c r="U37" t="n">
-        <v>1859.408064722923</v>
+        <v>1859.408064722922</v>
       </c>
       <c r="V37" t="n">
-        <v>1639.000728519941</v>
+        <v>1639.000728519939</v>
       </c>
       <c r="W37" t="n">
-        <v>1383.860710485885</v>
+        <v>1383.860710485884</v>
       </c>
       <c r="X37" t="n">
-        <v>1190.148311590772</v>
+        <v>1190.148311590771</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.632884450147</v>
+        <v>1003.632884450146</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1096.84455480105</v>
       </c>
       <c r="F38" t="n">
-        <v>720.1358020143475</v>
+        <v>720.1358020143471</v>
       </c>
       <c r="G38" t="n">
-        <v>340.078564964386</v>
+        <v>340.0785649643861</v>
       </c>
       <c r="H38" t="n">
         <v>84.33078483832612</v>
@@ -7172,28 +7172,28 @@
         <v>84.33078483832612</v>
       </c>
       <c r="J38" t="n">
-        <v>334.605353196911</v>
+        <v>334.6053531969096</v>
       </c>
       <c r="K38" t="n">
-        <v>760.4405724233816</v>
+        <v>760.44057242338</v>
       </c>
       <c r="L38" t="n">
-        <v>1325.628578657616</v>
+        <v>1325.628578657615</v>
       </c>
       <c r="M38" t="n">
-        <v>1986.178573107418</v>
+        <v>1986.178573107417</v>
       </c>
       <c r="N38" t="n">
-        <v>2662.030765430009</v>
+        <v>2662.030765430007</v>
       </c>
       <c r="O38" t="n">
-        <v>3286.883564480951</v>
+        <v>3286.88356448095</v>
       </c>
       <c r="P38" t="n">
-        <v>3785.679971131544</v>
+        <v>3785.679971131542</v>
       </c>
       <c r="Q38" t="n">
-        <v>4112.082553043418</v>
+        <v>4112.082553043415</v>
       </c>
       <c r="R38" t="n">
         <v>4216.539241916306</v>
@@ -7205,7 +7205,7 @@
         <v>3988.874559673005</v>
       </c>
       <c r="U38" t="n">
-        <v>3769.680279837916</v>
+        <v>3769.680279837917</v>
       </c>
       <c r="V38" t="n">
         <v>3472.894544497251</v>
@@ -7251,19 +7251,19 @@
         <v>84.33078483832612</v>
       </c>
       <c r="J39" t="n">
-        <v>214.5747562432674</v>
+        <v>84.33078483832612</v>
       </c>
       <c r="K39" t="n">
-        <v>214.5747562432674</v>
+        <v>385.0933016488419</v>
       </c>
       <c r="L39" t="n">
-        <v>318.0510181116646</v>
+        <v>835.8281630556351</v>
       </c>
       <c r="M39" t="n">
-        <v>863.3942097557108</v>
+        <v>1366.441923357245</v>
       </c>
       <c r="N39" t="n">
-        <v>1437.57965787901</v>
+        <v>1940.627371480545</v>
       </c>
       <c r="O39" t="n">
         <v>1940.627371480545</v>
@@ -7306,73 +7306,73 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>856.2615716228108</v>
+        <v>856.2615716228113</v>
       </c>
       <c r="C40" t="n">
-        <v>721.6025406978088</v>
+        <v>721.6025406978092</v>
       </c>
       <c r="D40" t="n">
-        <v>605.7630532883779</v>
+        <v>605.7630532883783</v>
       </c>
       <c r="E40" t="n">
-        <v>492.1271117088897</v>
+        <v>492.12711170889</v>
       </c>
       <c r="F40" t="n">
-        <v>379.5143162138842</v>
+        <v>379.5143162138844</v>
       </c>
       <c r="G40" t="n">
-        <v>246.4197003932661</v>
+        <v>246.4197003932662</v>
       </c>
       <c r="H40" t="n">
-        <v>137.4231682332961</v>
+        <v>137.4231682332962</v>
       </c>
       <c r="I40" t="n">
         <v>84.33078483832612</v>
       </c>
       <c r="J40" t="n">
-        <v>152.6893487088524</v>
+        <v>185.9892276183484</v>
       </c>
       <c r="K40" t="n">
-        <v>427.9703065782096</v>
+        <v>461.2701854877055</v>
       </c>
       <c r="L40" t="n">
-        <v>826.366547433764</v>
+        <v>816.7116876153771</v>
       </c>
       <c r="M40" t="n">
-        <v>1254.982428108409</v>
+        <v>1245.327568290022</v>
       </c>
       <c r="N40" t="n">
-        <v>1679.640212449667</v>
+        <v>1669.98535263128</v>
       </c>
       <c r="O40" t="n">
-        <v>2058.428696420066</v>
+        <v>2048.773836601678</v>
       </c>
       <c r="P40" t="n">
-        <v>2363.875679038606</v>
+        <v>2354.220819220219</v>
       </c>
       <c r="Q40" t="n">
-        <v>2492.596971921754</v>
+        <v>2492.596971921755</v>
       </c>
       <c r="R40" t="n">
-        <v>2451.929723895782</v>
+        <v>2451.929723895783</v>
       </c>
       <c r="S40" t="n">
-        <v>2300.290618025243</v>
+        <v>2300.290618025244</v>
       </c>
       <c r="T40" t="n">
-        <v>2114.215721296095</v>
+        <v>2114.215721296096</v>
       </c>
       <c r="U40" t="n">
-        <v>1859.408064722921</v>
+        <v>1859.408064722922</v>
       </c>
       <c r="V40" t="n">
-        <v>1639.000728519939</v>
+        <v>1639.00072851994</v>
       </c>
       <c r="W40" t="n">
-        <v>1383.860710485883</v>
+        <v>1383.860710485884</v>
       </c>
       <c r="X40" t="n">
-        <v>1190.148311590771</v>
+        <v>1190.148311590772</v>
       </c>
       <c r="Y40" t="n">
         <v>1003.632884450146</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2231.435690232974</v>
+        <v>1954.953556224375</v>
       </c>
       <c r="C41" t="n">
-        <v>1876.015971412928</v>
+        <v>1599.533837404329</v>
       </c>
       <c r="D41" t="n">
-        <v>1531.293070926544</v>
+        <v>1254.810936917945</v>
       </c>
       <c r="E41" t="n">
-        <v>1159.047616448666</v>
+        <v>882.5654824400669</v>
       </c>
       <c r="F41" t="n">
-        <v>761.6045097794242</v>
+        <v>485.1223757708256</v>
       </c>
       <c r="G41" t="n">
-        <v>360.8129188469247</v>
+        <v>84.3307848383261</v>
       </c>
       <c r="H41" t="n">
-        <v>84.33078483832612</v>
+        <v>84.3307848383261</v>
       </c>
       <c r="I41" t="n">
-        <v>84.33078483832612</v>
+        <v>84.3307848383261</v>
       </c>
       <c r="J41" t="n">
         <v>334.6053531969096</v>
       </c>
       <c r="K41" t="n">
-        <v>760.44057242338</v>
+        <v>760.4405724233799</v>
       </c>
       <c r="L41" t="n">
         <v>1325.628578657615</v>
       </c>
       <c r="M41" t="n">
-        <v>1986.178573107417</v>
+        <v>1986.178573107416</v>
       </c>
       <c r="N41" t="n">
-        <v>2662.030765430009</v>
+        <v>2662.030765430007</v>
       </c>
       <c r="O41" t="n">
-        <v>3286.883564480951</v>
+        <v>3286.883564480949</v>
       </c>
       <c r="P41" t="n">
-        <v>3785.679971131543</v>
+        <v>3785.679971131542</v>
       </c>
       <c r="Q41" t="n">
-        <v>4112.082553043417</v>
+        <v>4112.082553043415</v>
       </c>
       <c r="R41" t="n">
-        <v>4216.539241916306</v>
+        <v>4216.539241916304</v>
       </c>
       <c r="S41" t="n">
-        <v>4216.539241916306</v>
+        <v>4136.609938928729</v>
       </c>
       <c r="T41" t="n">
-        <v>4216.539241916306</v>
+        <v>3947.405851907925</v>
       </c>
       <c r="U41" t="n">
-        <v>3997.75817254584</v>
+        <v>3707.477218190299</v>
       </c>
       <c r="V41" t="n">
-        <v>3680.238083322636</v>
+        <v>3389.957128967095</v>
       </c>
       <c r="W41" t="n">
-        <v>3341.012226172888</v>
+        <v>3050.731271817347</v>
       </c>
       <c r="X41" t="n">
-        <v>2981.089266032175</v>
+        <v>2690.808311676633</v>
       </c>
       <c r="Y41" t="n">
-        <v>2604.492732176729</v>
+        <v>2314.211777821188</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>176.429840497753</v>
       </c>
       <c r="H42" t="n">
-        <v>89.74182465961292</v>
+        <v>89.74182465961289</v>
       </c>
       <c r="I42" t="n">
-        <v>84.33078483832612</v>
+        <v>84.3307848383261</v>
       </c>
       <c r="J42" t="n">
-        <v>84.33078483832612</v>
+        <v>84.3307848383261</v>
       </c>
       <c r="K42" t="n">
-        <v>318.0510181116646</v>
+        <v>385.0933016488419</v>
       </c>
       <c r="L42" t="n">
-        <v>318.0510181116646</v>
+        <v>525.0977701556686</v>
       </c>
       <c r="M42" t="n">
-        <v>863.3942097557108</v>
+        <v>1070.440961799715</v>
       </c>
       <c r="N42" t="n">
-        <v>1437.57965787901</v>
+        <v>1644.626409923015</v>
       </c>
       <c r="O42" t="n">
-        <v>1940.627371480545</v>
+        <v>2147.674123524549</v>
       </c>
       <c r="P42" t="n">
-        <v>2325.034444872335</v>
+        <v>2532.081196916339</v>
       </c>
       <c r="Q42" t="n">
         <v>2532.081196916339</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>550.0332034856384</v>
+        <v>601.7501720885589</v>
       </c>
       <c r="C43" t="n">
-        <v>441.7173778615002</v>
+        <v>446.3567872810182</v>
       </c>
       <c r="D43" t="n">
-        <v>441.7173778615002</v>
+        <v>446.3567872810182</v>
       </c>
       <c r="E43" t="n">
-        <v>441.7173778615002</v>
+        <v>311.9864918189914</v>
       </c>
       <c r="F43" t="n">
-        <v>441.7173778615002</v>
+        <v>311.9864918189914</v>
       </c>
       <c r="G43" t="n">
-        <v>287.8884081583434</v>
+        <v>158.1575221158347</v>
       </c>
       <c r="H43" t="n">
-        <v>158.1575221158348</v>
+        <v>158.1575221158347</v>
       </c>
       <c r="I43" t="n">
-        <v>84.33078483832612</v>
+        <v>84.3307848383261</v>
       </c>
       <c r="J43" t="n">
-        <v>165.6674873780723</v>
+        <v>165.6674873780724</v>
       </c>
       <c r="K43" t="n">
-        <v>420.6267050071534</v>
+        <v>420.6267050071536</v>
       </c>
       <c r="L43" t="n">
-        <v>798.7012056224316</v>
+        <v>798.7012056224319</v>
       </c>
       <c r="M43" t="n">
         <v>1206.995346056801</v>
@@ -7588,31 +7588,31 @@
         <v>2254.923376266169</v>
       </c>
       <c r="Q43" t="n">
-        <v>2372.977788727429</v>
+        <v>2372.97778872743</v>
       </c>
       <c r="R43" t="n">
-        <v>2311.576186818919</v>
+        <v>2311.57618681892</v>
       </c>
       <c r="S43" t="n">
-        <v>2139.202727065841</v>
+        <v>2139.202727065842</v>
       </c>
       <c r="T43" t="n">
         <v>1932.393476454155</v>
       </c>
       <c r="U43" t="n">
-        <v>1656.851465998442</v>
+        <v>1656.851465998443</v>
       </c>
       <c r="V43" t="n">
-        <v>1415.709775912921</v>
+        <v>1415.709775912922</v>
       </c>
       <c r="W43" t="n">
-        <v>1139.835403996327</v>
+        <v>1139.835403996328</v>
       </c>
       <c r="X43" t="n">
-        <v>925.3886512186758</v>
+        <v>925.3886512186765</v>
       </c>
       <c r="Y43" t="n">
-        <v>718.1388701955119</v>
+        <v>718.1388701955127</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2231.435690232973</v>
+        <v>1941.154735877432</v>
       </c>
       <c r="C44" t="n">
-        <v>1876.015971412928</v>
+        <v>1585.735017057387</v>
       </c>
       <c r="D44" t="n">
-        <v>1531.293070926543</v>
+        <v>1241.012116571002</v>
       </c>
       <c r="E44" t="n">
-        <v>1159.047616448665</v>
+        <v>868.7666620931245</v>
       </c>
       <c r="F44" t="n">
         <v>761.6045097794241</v>
@@ -7640,58 +7640,58 @@
         <v>360.8129188469246</v>
       </c>
       <c r="H44" t="n">
-        <v>84.33078483832612</v>
+        <v>84.3307848383261</v>
       </c>
       <c r="I44" t="n">
-        <v>84.33078483832612</v>
+        <v>84.3307848383261</v>
       </c>
       <c r="J44" t="n">
-        <v>334.6053531969096</v>
+        <v>334.6053531969095</v>
       </c>
       <c r="K44" t="n">
-        <v>760.44057242338</v>
+        <v>760.4405724233798</v>
       </c>
       <c r="L44" t="n">
-        <v>1325.628578657615</v>
+        <v>1325.628578657614</v>
       </c>
       <c r="M44" t="n">
-        <v>1986.178573107417</v>
+        <v>1986.178573107416</v>
       </c>
       <c r="N44" t="n">
-        <v>2662.030765430009</v>
+        <v>2662.030765430007</v>
       </c>
       <c r="O44" t="n">
-        <v>3286.883564480951</v>
+        <v>3286.883564480949</v>
       </c>
       <c r="P44" t="n">
-        <v>3785.679971131543</v>
+        <v>3785.679971131541</v>
       </c>
       <c r="Q44" t="n">
-        <v>4112.082553043417</v>
+        <v>4112.082553043415</v>
       </c>
       <c r="R44" t="n">
-        <v>4216.539241916306</v>
+        <v>4216.539241916304</v>
       </c>
       <c r="S44" t="n">
-        <v>4216.539241916306</v>
+        <v>4136.609938928729</v>
       </c>
       <c r="T44" t="n">
-        <v>4216.539241916306</v>
+        <v>3947.405851907925</v>
       </c>
       <c r="U44" t="n">
-        <v>3997.75817254584</v>
+        <v>3707.477218190299</v>
       </c>
       <c r="V44" t="n">
-        <v>3680.238083322636</v>
+        <v>3389.957128967095</v>
       </c>
       <c r="W44" t="n">
-        <v>3341.012226172888</v>
+        <v>3050.731271817347</v>
       </c>
       <c r="X44" t="n">
-        <v>2981.089266032174</v>
+        <v>2690.808311676633</v>
       </c>
       <c r="Y44" t="n">
-        <v>2604.492732176729</v>
+        <v>2314.211777821188</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>176.429840497753</v>
       </c>
       <c r="H45" t="n">
-        <v>89.74182465961292</v>
+        <v>89.74182465961289</v>
       </c>
       <c r="I45" t="n">
-        <v>84.33078483832612</v>
+        <v>84.3307848383261</v>
       </c>
       <c r="J45" t="n">
-        <v>84.33078483832612</v>
+        <v>84.3307848383261</v>
       </c>
       <c r="K45" t="n">
-        <v>84.33078483832612</v>
+        <v>385.0933016488419</v>
       </c>
       <c r="L45" t="n">
-        <v>535.0656462451192</v>
+        <v>835.8281630556351</v>
       </c>
       <c r="M45" t="n">
-        <v>1080.408837889165</v>
+        <v>1381.171354699681</v>
       </c>
       <c r="N45" t="n">
-        <v>1654.594286012465</v>
+        <v>1644.626409923015</v>
       </c>
       <c r="O45" t="n">
-        <v>2157.641999613999</v>
+        <v>2147.674123524549</v>
       </c>
       <c r="P45" t="n">
-        <v>2542.04907300579</v>
+        <v>2532.081196916339</v>
       </c>
       <c r="Q45" t="n">
-        <v>2555.970087633199</v>
+        <v>2532.081196916339</v>
       </c>
       <c r="R45" t="n">
         <v>2555.970087633199</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>550.0332034856392</v>
+        <v>717.8421930549158</v>
       </c>
       <c r="C46" t="n">
-        <v>550.0332034856392</v>
+        <v>562.4488082473752</v>
       </c>
       <c r="D46" t="n">
-        <v>550.0332034856392</v>
+        <v>425.8749669554056</v>
       </c>
       <c r="E46" t="n">
-        <v>415.6629080236123</v>
+        <v>291.5046714933788</v>
       </c>
       <c r="F46" t="n">
-        <v>282.3157586460682</v>
+        <v>158.1575221158347</v>
       </c>
       <c r="G46" t="n">
-        <v>128.4867889429115</v>
+        <v>158.1575221158347</v>
       </c>
       <c r="H46" t="n">
-        <v>84.33078483832612</v>
+        <v>158.1575221158347</v>
       </c>
       <c r="I46" t="n">
-        <v>84.33078483832612</v>
+        <v>84.3307848383261</v>
       </c>
       <c r="J46" t="n">
         <v>165.6674873780724</v>
@@ -9082,10 +9082,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>33.63624132272429</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>106.7437663446525</v>
+        <v>106.743766344653</v>
       </c>
       <c r="L16" t="n">
         <v>162.4747015415544</v>
@@ -9319,10 +9319,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>96.99138268971387</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
         <v>162.4747015415544</v>
@@ -9334,7 +9334,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O19" t="n">
-        <v>163.0416663658825</v>
+        <v>119.6530413882196</v>
       </c>
       <c r="P19" t="n">
         <v>135.0065633140411</v>
@@ -9559,7 +9559,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>96.99138268971046</v>
+        <v>96.99138268971302</v>
       </c>
       <c r="L22" t="n">
         <v>162.4747015415544</v>
@@ -9793,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
         <v>106.7437663446525</v>
@@ -9805,7 +9805,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N25" t="n">
-        <v>162.0653331895257</v>
+        <v>128.4290918667987</v>
       </c>
       <c r="O25" t="n">
         <v>163.0416663658825</v>
@@ -10507,7 +10507,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>63.35514136699103</v>
       </c>
       <c r="L34" t="n">
         <v>162.4747015415544</v>
@@ -10525,7 +10525,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>21.95433340009014</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10750,7 +10750,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>178.5096609094456</v>
+        <v>135.1210359317846</v>
       </c>
       <c r="N37" t="n">
         <v>171.8177168444618</v>
@@ -10762,7 +10762,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q37" t="n">
-        <v>21.95433340009347</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10978,13 +10978,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
         <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>162.4747015415544</v>
+        <v>119.0860765638951</v>
       </c>
       <c r="M40" t="n">
         <v>178.5096609094456</v>
@@ -10999,7 +10999,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q40" t="n">
-        <v>55.59057472281323</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>7.102442495190644</v>
+        <v>7.102442495190656</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>24.97200927688971</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>24.97200927688839</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>24.97200927689033</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>24.97200927688971</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -24455,10 +24455,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>24.97200927688851</v>
       </c>
       <c r="H26" t="n">
-        <v>24.97200927688851</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>24.97200927688874</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24734,7 +24734,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>24.97200927688871</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>13.66083214347293</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>273.7173126685125</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>79.1300099576993</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>187.3120461505958</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>20.93608870368885</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>51.19979891689043</v>
       </c>
       <c r="C43" t="n">
-        <v>46.60678359156843</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>135.2081028790498</v>
       </c>
       <c r="E43" t="n">
-        <v>133.0265925074066</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>132.0136778837687</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>128.4335771820834</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25874,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>287.3781448119855</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25913,13 +25913,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>79.13000995769924</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>187.3120461505957</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>20.93608870368834</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>166.1308996735838</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8394509594652</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>135.2081028790498</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>152.2906800061251</v>
       </c>
       <c r="H46" t="n">
-        <v>84.71913311854391</v>
+        <v>128.4335771820834</v>
       </c>
       <c r="I46" t="n">
-        <v>73.08846990473351</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>669271.9095359577</v>
+        <v>669271.9095359576</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>670263.3640620182</v>
+        <v>670263.3640620183</v>
       </c>
     </row>
     <row r="9">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>643982.2678133366</v>
+        <v>643982.2678133365</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>643982.2678133366</v>
+        <v>643982.2678133365</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26317,43 @@
         <v>779452.594669583</v>
       </c>
       <c r="D2" t="n">
-        <v>779452.5946695829</v>
+        <v>779452.594669583</v>
       </c>
       <c r="E2" t="n">
-        <v>778101.2980295512</v>
+        <v>778101.2980295507</v>
       </c>
       <c r="F2" t="n">
-        <v>778101.2980295509</v>
+        <v>778101.2980295506</v>
       </c>
       <c r="G2" t="n">
         <v>779989.6813710689</v>
       </c>
       <c r="H2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710685</v>
       </c>
       <c r="I2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710685</v>
       </c>
       <c r="J2" t="n">
+        <v>778101.2980295508</v>
+      </c>
+      <c r="K2" t="n">
         <v>778101.2980295507</v>
       </c>
-      <c r="K2" t="n">
-        <v>778101.298029551</v>
-      </c>
       <c r="L2" t="n">
-        <v>779989.6813710685</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="M2" t="n">
         <v>779989.6813710688</v>
       </c>
       <c r="N2" t="n">
-        <v>779989.6813710686</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="O2" t="n">
-        <v>748069.848483938</v>
+        <v>748069.8484839377</v>
       </c>
       <c r="P2" t="n">
-        <v>748069.8484839379</v>
+        <v>748069.8484839377</v>
       </c>
     </row>
     <row r="3">
@@ -26378,22 +26378,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1426.971958679628</v>
+        <v>1426.971958679457</v>
       </c>
       <c r="H3" t="n">
-        <v>1.023181539494544e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>25487.25538611195</v>
+        <v>25487.25538611196</v>
       </c>
       <c r="K3" t="n">
-        <v>595.4875608169089</v>
+        <v>595.487560816943</v>
       </c>
       <c r="L3" t="n">
-        <v>2853.94391735889</v>
+        <v>2853.943917358896</v>
       </c>
       <c r="M3" t="n">
         <v>260981.0732076103</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7871.952193971248</v>
+        <v>7871.952193971179</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,40 +26418,40 @@
         <v>356944.9912467133</v>
       </c>
       <c r="C4" t="n">
-        <v>356013.7579013873</v>
+        <v>356013.7579013872</v>
       </c>
       <c r="D4" t="n">
         <v>356013.7579013872</v>
       </c>
       <c r="E4" t="n">
+        <v>46403.37920660168</v>
+      </c>
+      <c r="F4" t="n">
+        <v>46403.37920660169</v>
+      </c>
+      <c r="G4" t="n">
+        <v>47524.54007799279</v>
+      </c>
+      <c r="H4" t="n">
+        <v>47524.54007799279</v>
+      </c>
+      <c r="I4" t="n">
+        <v>47524.54007799279</v>
+      </c>
+      <c r="J4" t="n">
         <v>46403.37920660165</v>
       </c>
-      <c r="F4" t="n">
-        <v>46403.37920660166</v>
-      </c>
-      <c r="G4" t="n">
-        <v>47524.54007799277</v>
-      </c>
-      <c r="H4" t="n">
-        <v>47524.54007799285</v>
-      </c>
-      <c r="I4" t="n">
-        <v>47524.54007799271</v>
-      </c>
-      <c r="J4" t="n">
-        <v>46403.37920660168</v>
-      </c>
       <c r="K4" t="n">
-        <v>46403.37920660165</v>
+        <v>46403.37920660164</v>
       </c>
       <c r="L4" t="n">
         <v>47524.54007799275</v>
       </c>
       <c r="M4" t="n">
-        <v>47524.54007799266</v>
+        <v>47524.54007799274</v>
       </c>
       <c r="N4" t="n">
-        <v>47524.54007799274</v>
+        <v>47524.5400779928</v>
       </c>
       <c r="O4" t="n">
         <v>28313.98744531315</v>
@@ -26473,22 +26473,22 @@
         <v>41226.73635463382</v>
       </c>
       <c r="D5" t="n">
-        <v>41226.73635463383</v>
+        <v>41226.73635463382</v>
       </c>
       <c r="E5" t="n">
-        <v>94513.7004840851</v>
+        <v>94513.70048408507</v>
       </c>
       <c r="F5" t="n">
-        <v>94513.70048408507</v>
+        <v>94513.70048408506</v>
       </c>
       <c r="G5" t="n">
         <v>94663.65561607786</v>
       </c>
       <c r="H5" t="n">
-        <v>94663.65561607787</v>
+        <v>94663.65561607784</v>
       </c>
       <c r="I5" t="n">
-        <v>94663.65561607786</v>
+        <v>94663.65561607784</v>
       </c>
       <c r="J5" t="n">
         <v>94513.7004840851</v>
@@ -26500,16 +26500,16 @@
         <v>94663.65561607787</v>
       </c>
       <c r="M5" t="n">
+        <v>94663.65561607787</v>
+      </c>
+      <c r="N5" t="n">
         <v>94663.65561607786</v>
       </c>
-      <c r="N5" t="n">
-        <v>94663.65561607787</v>
-      </c>
       <c r="O5" t="n">
-        <v>92937.97038349224</v>
+        <v>92937.97038349221</v>
       </c>
       <c r="P5" t="n">
-        <v>92937.97038349224</v>
+        <v>92937.97038349221</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65299.3522756127</v>
+        <v>65297.01543296002</v>
       </c>
       <c r="C6" t="n">
-        <v>378527.3767317487</v>
+        <v>378525.9633456923</v>
       </c>
       <c r="D6" t="n">
-        <v>382212.1004135619</v>
+        <v>382210.6870275054</v>
       </c>
       <c r="E6" t="n">
-        <v>-458131.9697446525</v>
+        <v>-458136.9391744988</v>
       </c>
       <c r="F6" t="n">
-        <v>637184.2183388646</v>
+        <v>637179.248909018</v>
       </c>
       <c r="G6" t="n">
-        <v>636374.5137183187</v>
+        <v>636374.5137183188</v>
       </c>
       <c r="H6" t="n">
-        <v>637801.485676998</v>
+        <v>637801.4856769978</v>
       </c>
       <c r="I6" t="n">
-        <v>637801.4856769985</v>
+        <v>637801.4856769977</v>
       </c>
       <c r="J6" t="n">
-        <v>611696.962952752</v>
+        <v>611691.993522906</v>
       </c>
       <c r="K6" t="n">
-        <v>636588.7307780473</v>
+        <v>636583.7613482008</v>
       </c>
       <c r="L6" t="n">
-        <v>634947.541759639</v>
+        <v>634947.5417596395</v>
       </c>
       <c r="M6" t="n">
-        <v>376820.412469388</v>
+        <v>376820.4124693879</v>
       </c>
       <c r="N6" t="n">
-        <v>637801.485676998</v>
+        <v>637801.4856769982</v>
       </c>
       <c r="O6" t="n">
-        <v>618945.9384611615</v>
+        <v>618861.938900932</v>
       </c>
       <c r="P6" t="n">
-        <v>626817.8906551325</v>
+        <v>626733.8910949031</v>
       </c>
     </row>
   </sheetData>
@@ -26692,22 +26692,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="F2" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="G2" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="H2" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="I2" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
       <c r="J2" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
       <c r="K2" t="n">
         <v>32.1506655345265</v>
@@ -26716,13 +26716,13 @@
         <v>33.9343804828758</v>
       </c>
       <c r="M2" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
       <c r="N2" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
       <c r="O2" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="P2" t="n">
         <v>13.40737013916259</v>
@@ -26793,10 +26793,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="D4" t="n">
-        <v>6.876045741711465</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>1054.134810479077</v>
+        <v>1054.134810479076</v>
       </c>
       <c r="F4" t="n">
         <v>1054.134810479076</v>
@@ -26808,7 +26808,7 @@
         <v>1054.134810479076</v>
       </c>
       <c r="I4" t="n">
-        <v>1054.134810479077</v>
+        <v>1054.134810479076</v>
       </c>
       <c r="J4" t="n">
         <v>1054.134810479077</v>
@@ -26826,10 +26826,10 @@
         <v>1054.134810479077</v>
       </c>
       <c r="O4" t="n">
-        <v>1054.134810479077</v>
+        <v>1054.134810479076</v>
       </c>
       <c r="P4" t="n">
-        <v>1054.134810479077</v>
+        <v>1054.134810479076</v>
       </c>
     </row>
   </sheetData>
@@ -26914,28 +26914,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.783714948349314</v>
+        <v>1.783714948349321</v>
       </c>
       <c r="H2" t="n">
-        <v>1.27897692436818e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30.36695058617732</v>
+        <v>30.36695058617718</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.567429896698613</v>
+        <v>3.56742989669862</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.83994024246406</v>
+        <v>9.83994024246411</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,19 +26966,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>942.1264647980438</v>
+        <v>942.1264647980436</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>4.562286607642818</v>
+        <v>4.562286607643273</v>
       </c>
       <c r="K4" t="n">
         <v>2.313759134068505</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.783714948349314</v>
+        <v>1.783714948349321</v>
       </c>
       <c r="M2" t="n">
-        <v>1.27897692436818e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>30.36695058617732</v>
+        <v>30.36695058617718</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.9191074598118</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>369.8351783786504</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>330.6079205209855</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I2" t="n">
         <v>159.9226849201952</v>
@@ -27439,7 +27439,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>349.4262345137442</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>161.9708970422245</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>142.8827789569959</v>
+        <v>143.4266035206269</v>
       </c>
       <c r="E3" t="n">
-        <v>153.6266184113891</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27482,7 +27482,7 @@
         <v>60.55202075660908</v>
       </c>
       <c r="K3" t="n">
-        <v>19.98649405045454</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>50.42343072191045</v>
       </c>
       <c r="R3" t="n">
-        <v>97.55661026924176</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S3" t="n">
         <v>158.6512997408977</v>
@@ -27512,7 +27512,7 @@
         <v>197.336797223147</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8952243311651</v>
+        <v>221.3329377235222</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>201.1204091696615</v>
       </c>
     </row>
     <row r="4">
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>370.2478078249014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>386.9052861261556</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159.6571379081559</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27704,7 +27704,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>138.1931666516724</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.6349813347674</v>
@@ -27719,7 +27719,7 @@
         <v>59.8965289451948</v>
       </c>
       <c r="K6" t="n">
-        <v>23.42844074719079</v>
+        <v>17.37201965789137</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -27737,13 +27737,13 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>42.66175136618847</v>
+        <v>49.53779710789991</v>
       </c>
       <c r="R6" t="n">
         <v>101.6881303348308</v>
       </c>
       <c r="S6" t="n">
-        <v>158.5224288518331</v>
+        <v>151.6463831101217</v>
       </c>
       <c r="T6" t="n">
         <v>197.3088320880702</v>
@@ -27752,16 +27752,16 @@
         <v>225.8947678817351</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W6" t="n">
-        <v>245.6385620716202</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>198.8066500355929</v>
       </c>
     </row>
     <row r="7">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>370.2478078249014</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>330.8877502489577</v>
+        <v>325.9128341950639</v>
       </c>
       <c r="I8" t="n">
         <v>159.4227692713298</v>
@@ -27877,7 +27877,7 @@
         <v>68.65190234826171</v>
       </c>
       <c r="K8" t="n">
-        <v>51.64037691895484</v>
+        <v>51.64037691895487</v>
       </c>
       <c r="L8" t="n">
         <v>26.78994699523963</v>
@@ -27889,13 +27889,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>6.977105843813348</v>
+        <v>6.977105843813376</v>
       </c>
       <c r="P8" t="n">
-        <v>40.80429423377231</v>
+        <v>40.80429423377234</v>
       </c>
       <c r="Q8" t="n">
-        <v>79.30166562967008</v>
+        <v>79.30166562967011</v>
       </c>
       <c r="R8" t="n">
         <v>132.401164090331</v>
@@ -27950,13 +27950,13 @@
         <v>105.3924797881105</v>
       </c>
       <c r="I9" t="n">
-        <v>69.07119464193147</v>
+        <v>75.12761573123095</v>
       </c>
       <c r="J9" t="n">
-        <v>53.02048320348334</v>
+        <v>59.8965289451948</v>
       </c>
       <c r="K9" t="n">
-        <v>16.55239500547931</v>
+        <v>23.42844074719079</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -27974,10 +27974,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>42.66175136618843</v>
+        <v>43.48137601860049</v>
       </c>
       <c r="R9" t="n">
-        <v>101.6881303348308</v>
+        <v>94.81208459311941</v>
       </c>
       <c r="S9" t="n">
         <v>158.5224288518331</v>
@@ -27989,13 +27989,13 @@
         <v>225.8947678817351</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>198.896939461766</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28038,16 +28038,16 @@
         <v>59.99978994537916</v>
       </c>
       <c r="L10" t="n">
-        <v>46.57119745853052</v>
+        <v>46.57119745853053</v>
       </c>
       <c r="M10" t="n">
         <v>45.81160299249012</v>
       </c>
       <c r="N10" t="n">
-        <v>36.78541061280316</v>
+        <v>36.78541061280318</v>
       </c>
       <c r="O10" t="n">
-        <v>54.49555222612059</v>
+        <v>54.49555222612061</v>
       </c>
       <c r="P10" t="n">
         <v>65.88487562446231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="C11" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="D11" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="E11" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="F11" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="G11" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="H11" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="I11" t="n">
-        <v>13.40737013916257</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="T11" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="U11" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="V11" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="W11" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="X11" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="Y11" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="C13" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="D13" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="E13" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="F13" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="G13" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="H13" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="I13" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="J13" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="K13" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="L13" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="M13" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="N13" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="O13" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="P13" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="Q13" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="R13" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="S13" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="T13" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="U13" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="V13" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="W13" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="X13" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="C14" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="D14" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="E14" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="F14" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="G14" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="H14" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="I14" t="n">
         <v>13.40737013916262</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="T14" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="U14" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="V14" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="W14" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="X14" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="Y14" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="C16" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="D16" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="E16" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="F16" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="G16" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="H16" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="I16" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="J16" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="K16" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="L16" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="M16" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="N16" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="O16" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="P16" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="Q16" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="R16" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="S16" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="T16" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="U16" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="V16" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="W16" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="X16" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.1506655345265</v>
+        <v>32.15066553452653</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="C17" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="D17" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="E17" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="F17" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="G17" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="H17" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="I17" t="n">
-        <v>13.40737013916259</v>
+        <v>13.40737013916262</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="T17" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="U17" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="V17" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="W17" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="X17" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="Y17" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="C19" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="D19" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="E19" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="F19" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="G19" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="H19" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="I19" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="J19" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="K19" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="L19" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="M19" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="N19" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="O19" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="P19" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="Q19" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="R19" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="S19" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="T19" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="U19" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="V19" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="W19" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="X19" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="Y19" t="n">
-        <v>33.93438048287582</v>
+        <v>33.93438048287585</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="C20" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="D20" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="E20" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="F20" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="G20" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="H20" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="I20" t="n">
-        <v>13.40737013916259</v>
+        <v>13.40737013916262</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="T20" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="U20" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="V20" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="W20" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="X20" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="Y20" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="C22" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="D22" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="E22" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="F22" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="G22" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="H22" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="I22" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="J22" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="K22" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="L22" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="M22" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="N22" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="O22" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="P22" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="Q22" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="R22" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="S22" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="T22" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="U22" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="V22" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="W22" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="X22" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
       <c r="Y22" t="n">
-        <v>33.93438048287595</v>
+        <v>33.93438048287585</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
       <c r="C23" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
       <c r="D23" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
       <c r="E23" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
       <c r="F23" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
       <c r="G23" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
       <c r="H23" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
       <c r="I23" t="n">
         <v>13.40737013916259</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
       <c r="T23" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
       <c r="U23" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
       <c r="V23" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
       <c r="W23" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
       <c r="X23" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
       <c r="Y23" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
       <c r="C25" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
       <c r="D25" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
       <c r="E25" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
       <c r="F25" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
       <c r="G25" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
       <c r="H25" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
       <c r="I25" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
       <c r="J25" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
       <c r="K25" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
       <c r="L25" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
       <c r="M25" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
       <c r="N25" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
       <c r="O25" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
       <c r="P25" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
       <c r="Q25" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
       <c r="R25" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
       <c r="S25" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
       <c r="T25" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
       <c r="U25" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
       <c r="V25" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
       <c r="W25" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
       <c r="X25" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
       <c r="Y25" t="n">
-        <v>33.93438048287572</v>
+        <v>33.93438048287586</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
       <c r="C26" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
       <c r="D26" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
       <c r="E26" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
       <c r="F26" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
       <c r="G26" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
       <c r="H26" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
       <c r="I26" t="n">
         <v>13.40737013916259</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
       <c r="T26" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
       <c r="U26" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
       <c r="V26" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
       <c r="W26" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
       <c r="X26" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
       <c r="Y26" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
       <c r="C28" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
       <c r="D28" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
       <c r="E28" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
       <c r="F28" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
       <c r="G28" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
       <c r="H28" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
       <c r="I28" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
       <c r="J28" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
       <c r="K28" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
       <c r="L28" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
       <c r="M28" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
       <c r="N28" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
       <c r="O28" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
       <c r="P28" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
       <c r="Q28" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
       <c r="R28" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
       <c r="S28" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
       <c r="T28" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
       <c r="U28" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
       <c r="V28" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
       <c r="W28" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
       <c r="X28" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.15066553452654</v>
+        <v>32.15066553452651</v>
       </c>
     </row>
     <row r="29">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
       <c r="C35" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
       <c r="D35" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
       <c r="E35" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
       <c r="F35" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
       <c r="G35" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
       <c r="H35" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
       <c r="I35" t="n">
         <v>13.40737013916259</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
       <c r="T35" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
       <c r="U35" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
       <c r="V35" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
       <c r="W35" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
       <c r="X35" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
       <c r="Y35" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
       <c r="C37" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
       <c r="D37" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
       <c r="E37" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
       <c r="F37" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
       <c r="G37" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
       <c r="H37" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
       <c r="I37" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
       <c r="J37" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
       <c r="K37" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
       <c r="L37" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
       <c r="M37" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
       <c r="N37" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
       <c r="O37" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
       <c r="P37" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
       <c r="Q37" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
       <c r="R37" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
       <c r="S37" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
       <c r="T37" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
       <c r="U37" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
       <c r="V37" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
       <c r="W37" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
       <c r="X37" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
       <c r="Y37" t="n">
-        <v>33.93438048287566</v>
+        <v>33.93438048287579</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
       <c r="C38" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
       <c r="D38" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
       <c r="E38" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
       <c r="F38" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
       <c r="G38" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
       <c r="H38" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
       <c r="I38" t="n">
         <v>13.40737013916259</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1.875832822406664e-12</v>
       </c>
       <c r="S38" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
       <c r="T38" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
       <c r="U38" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
       <c r="V38" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
       <c r="W38" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
       <c r="X38" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
       <c r="Y38" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
       <c r="C40" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
       <c r="D40" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
       <c r="E40" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
       <c r="F40" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
       <c r="G40" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
       <c r="H40" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
       <c r="I40" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
       <c r="J40" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
       <c r="K40" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
       <c r="L40" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
       <c r="M40" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
       <c r="N40" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
       <c r="O40" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
       <c r="P40" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
       <c r="Q40" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
       <c r="R40" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
       <c r="S40" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
       <c r="T40" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
       <c r="U40" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
       <c r="V40" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
       <c r="W40" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
       <c r="X40" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
       <c r="Y40" t="n">
-        <v>33.9343804828758</v>
+        <v>33.93438048287572</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="C41" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="D41" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="E41" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="F41" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="G41" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="H41" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="I41" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30493,7 +30493,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="T41" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="U41" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="V41" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="W41" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="X41" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="Y41" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="C43" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="D43" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="E43" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="F43" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="G43" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="H43" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="I43" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="J43" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="K43" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="L43" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="M43" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="N43" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="O43" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="P43" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="R43" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="S43" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="T43" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="U43" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="V43" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="W43" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="X43" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
       <c r="Y43" t="n">
-        <v>13.40737013916254</v>
+        <v>13.40737013916259</v>
       </c>
     </row>
     <row r="44">
@@ -31139,10 +31139,10 @@
         <v>146.6963205296612</v>
       </c>
       <c r="N3" t="n">
-        <v>135.7196638785462</v>
+        <v>135.9039986909762</v>
       </c>
       <c r="O3" t="n">
-        <v>147.1585310520873</v>
+        <v>146.9741962396573</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -31370,7 +31370,7 @@
         <v>114.4129982271682</v>
       </c>
       <c r="L6" t="n">
-        <v>145.4304255215856</v>
+        <v>145.1526054916175</v>
       </c>
       <c r="M6" t="n">
         <v>149.0100796637298</v>
@@ -31379,7 +31379,7 @@
         <v>138.2177578250447</v>
       </c>
       <c r="O6" t="n">
-        <v>149.1944701561877</v>
+        <v>149.4722901861559</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.324249278232958</v>
+        <v>1.324249278232957</v>
       </c>
       <c r="H8" t="n">
         <v>13.56196792070328</v>
       </c>
       <c r="I8" t="n">
-        <v>51.05312029907614</v>
+        <v>51.05312029907613</v>
       </c>
       <c r="J8" t="n">
         <v>112.3940021784246</v>
@@ -31592,10 +31592,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7085358284432287</v>
+        <v>0.7085358284432286</v>
       </c>
       <c r="H9" t="n">
-        <v>6.842964448385921</v>
+        <v>6.84296444838592</v>
       </c>
       <c r="I9" t="n">
         <v>24.39476426876906</v>
@@ -31607,22 +31607,22 @@
         <v>114.4129982271682</v>
       </c>
       <c r="L9" t="n">
-        <v>145.1526054916175</v>
+        <v>143.8277458061175</v>
       </c>
       <c r="M9" t="n">
         <v>149.0100796637298</v>
       </c>
       <c r="N9" t="n">
-        <v>138.2177578250448</v>
+        <v>138.2177578250447</v>
       </c>
       <c r="O9" t="n">
         <v>149.4722901861559</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>135.2992670998302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.44397697812163</v>
+        <v>90.44397697812161</v>
       </c>
       <c r="R9" t="n">
         <v>43.99137362913311</v>
@@ -31634,7 +31634,7 @@
         <v>2.855896606751434</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04661419923968612</v>
+        <v>0.04661419923968611</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5940126373057266</v>
+        <v>0.5940126373057265</v>
       </c>
       <c r="H10" t="n">
         <v>5.281312357136373</v>
       </c>
       <c r="I10" t="n">
-        <v>17.86358003824859</v>
+        <v>17.86358003824858</v>
       </c>
       <c r="J10" t="n">
         <v>41.99669345751487</v>
@@ -31686,22 +31686,22 @@
         <v>69.01346822515622</v>
       </c>
       <c r="L10" t="n">
-        <v>88.31347882270776</v>
+        <v>88.31347882270775</v>
       </c>
       <c r="M10" t="n">
         <v>93.11418095511493</v>
       </c>
       <c r="N10" t="n">
-        <v>90.90013385243003</v>
+        <v>90.90013385243002</v>
       </c>
       <c r="O10" t="n">
-        <v>83.96098622572219</v>
+        <v>83.96098622572218</v>
       </c>
       <c r="P10" t="n">
         <v>71.8431284246853</v>
       </c>
       <c r="Q10" t="n">
-        <v>49.74045820202771</v>
+        <v>49.7404582020277</v>
       </c>
       <c r="R10" t="n">
         <v>26.7089682192193</v>
@@ -31713,7 +31713,7 @@
         <v>2.538053995760831</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03240068930758513</v>
+        <v>0.03240068930758512</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.111692352797955</v>
+        <v>5.111692352797954</v>
       </c>
       <c r="H11" t="n">
-        <v>52.35011930809207</v>
+        <v>52.35011930809206</v>
       </c>
       <c r="I11" t="n">
         <v>197.0685194312433</v>
@@ -31762,25 +31762,25 @@
         <v>433.8484988282858</v>
       </c>
       <c r="K11" t="n">
-        <v>650.2264361222234</v>
+        <v>650.2264361222233</v>
       </c>
       <c r="L11" t="n">
-        <v>806.663390964164</v>
+        <v>806.6633909641638</v>
       </c>
       <c r="M11" t="n">
-        <v>897.5684498432346</v>
+        <v>897.5684498432344</v>
       </c>
       <c r="N11" t="n">
-        <v>912.0920457406219</v>
+        <v>912.0920457406216</v>
       </c>
       <c r="O11" t="n">
-        <v>861.2626549074871</v>
+        <v>861.262654907487</v>
       </c>
       <c r="P11" t="n">
-        <v>735.0677499477875</v>
+        <v>735.0677499477873</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0052675632105</v>
+        <v>552.0052675632104</v>
       </c>
       <c r="R11" t="n">
         <v>321.0973447564448</v>
@@ -31792,7 +31792,7 @@
         <v>22.37643327437306</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4089353882238363</v>
+        <v>0.4089353882238362</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,28 +31835,28 @@
         <v>26.41430855673774</v>
       </c>
       <c r="I12" t="n">
-        <v>94.16545057692609</v>
+        <v>94.16545057692608</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>258.3971937423649</v>
       </c>
       <c r="K12" t="n">
         <v>441.6419610051831</v>
       </c>
       <c r="L12" t="n">
-        <v>593.8421185746148</v>
+        <v>593.8421185746147</v>
       </c>
       <c r="M12" t="n">
-        <v>169.9785255382555</v>
+        <v>618.4042595972044</v>
       </c>
       <c r="N12" t="n">
-        <v>711.3270132179796</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>650.7252480823578</v>
+        <v>650.7252480823577</v>
       </c>
       <c r="P12" t="n">
-        <v>522.2643805373514</v>
+        <v>522.2643805373513</v>
       </c>
       <c r="Q12" t="n">
         <v>349.1199074638034</v>
@@ -31911,28 +31911,28 @@
         <v>2.292929213171051</v>
       </c>
       <c r="H13" t="n">
-        <v>20.38622518619355</v>
+        <v>20.38622518619354</v>
       </c>
       <c r="I13" t="n">
-        <v>68.95463488336219</v>
+        <v>68.95463488336217</v>
       </c>
       <c r="J13" t="n">
         <v>162.1100953711933</v>
       </c>
       <c r="K13" t="n">
-        <v>266.3966849484185</v>
+        <v>266.3966849484184</v>
       </c>
       <c r="L13" t="n">
         <v>340.8960395654489</v>
       </c>
       <c r="M13" t="n">
-        <v>359.4270765700767</v>
+        <v>359.4270765700766</v>
       </c>
       <c r="N13" t="n">
-        <v>350.8807040482576</v>
+        <v>350.8807040482575</v>
       </c>
       <c r="O13" t="n">
-        <v>324.0951218762138</v>
+        <v>324.0951218762137</v>
       </c>
       <c r="P13" t="n">
         <v>277.3193659275241</v>
@@ -31947,7 +31947,7 @@
         <v>39.95950274226276</v>
       </c>
       <c r="T13" t="n">
-        <v>9.797061183549035</v>
+        <v>9.797061183549033</v>
       </c>
       <c r="U13" t="n">
         <v>0.1250688661729666</v>
@@ -32075,13 +32075,13 @@
         <v>94.16545057692606</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>258.3971937423649</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>199.4953425806774</v>
       </c>
       <c r="L15" t="n">
-        <v>398.7656161336104</v>
+        <v>593.8421185746146</v>
       </c>
       <c r="M15" t="n">
         <v>692.985742653378</v>
@@ -32093,7 +32093,7 @@
         <v>650.7252480823576</v>
       </c>
       <c r="P15" t="n">
-        <v>522.2643805373511</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>349.1199074638033</v>
@@ -32224,46 +32224,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.111692352797954</v>
+        <v>5.111692352797953</v>
       </c>
       <c r="H17" t="n">
-        <v>52.35011930809206</v>
+        <v>52.35011930809205</v>
       </c>
       <c r="I17" t="n">
         <v>197.0685194312433</v>
       </c>
       <c r="J17" t="n">
-        <v>433.8484988282858</v>
+        <v>433.8484988282857</v>
       </c>
       <c r="K17" t="n">
-        <v>650.2264361222233</v>
+        <v>650.2264361222232</v>
       </c>
       <c r="L17" t="n">
-        <v>806.6633909641638</v>
+        <v>806.6633909641637</v>
       </c>
       <c r="M17" t="n">
-        <v>897.5684498432344</v>
+        <v>897.5684498432342</v>
       </c>
       <c r="N17" t="n">
-        <v>912.0920457406216</v>
+        <v>912.0920457406215</v>
       </c>
       <c r="O17" t="n">
-        <v>861.262654907487</v>
+        <v>861.2626549074868</v>
       </c>
       <c r="P17" t="n">
-        <v>735.0677499477873</v>
+        <v>735.0677499477872</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0052675632104</v>
       </c>
       <c r="R17" t="n">
-        <v>321.0973447564448</v>
+        <v>321.0973447564447</v>
       </c>
       <c r="S17" t="n">
         <v>116.4826894893835</v>
       </c>
       <c r="T17" t="n">
-        <v>22.37643327437306</v>
+        <v>22.37643327437305</v>
       </c>
       <c r="U17" t="n">
         <v>0.4089353882238362</v>
@@ -32303,43 +32303,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.734996526310719</v>
+        <v>2.734996526310718</v>
       </c>
       <c r="H18" t="n">
-        <v>26.41430855673774</v>
+        <v>26.41430855673773</v>
       </c>
       <c r="I18" t="n">
-        <v>94.16545057692608</v>
+        <v>94.16545057692606</v>
       </c>
       <c r="J18" t="n">
         <v>258.3971937423649</v>
       </c>
       <c r="K18" t="n">
-        <v>441.6419610051831</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>593.8421185746147</v>
+        <v>243.0758564146195</v>
       </c>
       <c r="M18" t="n">
-        <v>692.9857426533781</v>
+        <v>692.985742653378</v>
       </c>
       <c r="N18" t="n">
-        <v>711.3270132179795</v>
+        <v>711.3270132179794</v>
       </c>
       <c r="O18" t="n">
-        <v>617.7167630356328</v>
+        <v>650.7252480823576</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>522.2643805373511</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>349.1199074638033</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>169.8096966072568</v>
       </c>
       <c r="S18" t="n">
-        <v>50.80136091634161</v>
+        <v>50.8013609163416</v>
       </c>
       <c r="T18" t="n">
         <v>11.02395529684013</v>
@@ -32388,16 +32388,16 @@
         <v>20.38622518619354</v>
       </c>
       <c r="I19" t="n">
-        <v>68.95463488336217</v>
+        <v>68.95463488336216</v>
       </c>
       <c r="J19" t="n">
         <v>162.1100953711933</v>
       </c>
       <c r="K19" t="n">
-        <v>266.3966849484184</v>
+        <v>266.3966849484183</v>
       </c>
       <c r="L19" t="n">
-        <v>340.8960395654489</v>
+        <v>340.8960395654488</v>
       </c>
       <c r="M19" t="n">
         <v>359.4270765700766</v>
@@ -32409,22 +32409,22 @@
         <v>324.0951218762137</v>
       </c>
       <c r="P19" t="n">
-        <v>277.3193659275241</v>
+        <v>277.319365927524</v>
       </c>
       <c r="Q19" t="n">
         <v>192.0015543865323</v>
       </c>
       <c r="R19" t="n">
-        <v>103.098435348582</v>
+        <v>103.0984353485819</v>
       </c>
       <c r="S19" t="n">
-        <v>39.95950274226276</v>
+        <v>39.95950274226275</v>
       </c>
       <c r="T19" t="n">
-        <v>9.797061183549033</v>
+        <v>9.797061183549031</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1250688661729666</v>
+        <v>0.1250688661729665</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,46 +32461,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.111692352797954</v>
+        <v>5.111692352797953</v>
       </c>
       <c r="H20" t="n">
-        <v>52.35011930809206</v>
+        <v>52.35011930809205</v>
       </c>
       <c r="I20" t="n">
         <v>197.0685194312433</v>
       </c>
       <c r="J20" t="n">
-        <v>433.8484988282858</v>
+        <v>433.8484988282857</v>
       </c>
       <c r="K20" t="n">
-        <v>650.2264361222233</v>
+        <v>650.2264361222232</v>
       </c>
       <c r="L20" t="n">
-        <v>806.6633909641638</v>
+        <v>806.6633909641637</v>
       </c>
       <c r="M20" t="n">
-        <v>897.5684498432344</v>
+        <v>897.5684498432342</v>
       </c>
       <c r="N20" t="n">
-        <v>912.0920457406216</v>
+        <v>912.0920457406215</v>
       </c>
       <c r="O20" t="n">
-        <v>861.262654907487</v>
+        <v>861.2626549074868</v>
       </c>
       <c r="P20" t="n">
-        <v>735.0677499477873</v>
+        <v>735.0677499477872</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0052675632104</v>
       </c>
       <c r="R20" t="n">
-        <v>321.0973447564448</v>
+        <v>321.0973447564447</v>
       </c>
       <c r="S20" t="n">
         <v>116.4826894893835</v>
       </c>
       <c r="T20" t="n">
-        <v>22.37643327437306</v>
+        <v>22.37643327437305</v>
       </c>
       <c r="U20" t="n">
         <v>0.4089353882238362</v>
@@ -32540,43 +32540,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.734996526310719</v>
+        <v>2.734996526310718</v>
       </c>
       <c r="H21" t="n">
-        <v>26.41430855673774</v>
+        <v>26.41430855673773</v>
       </c>
       <c r="I21" t="n">
-        <v>94.16545057692608</v>
+        <v>94.16545057692606</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>441.641961005183</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6354234903171</v>
+        <v>593.8421185746146</v>
       </c>
       <c r="M21" t="n">
-        <v>692.9857426533781</v>
+        <v>692.985742653378</v>
       </c>
       <c r="N21" t="n">
-        <v>711.3270132179795</v>
+        <v>696.4487997407717</v>
       </c>
       <c r="O21" t="n">
-        <v>650.7252480823577</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>522.2643805373513</v>
+        <v>522.2643805373511</v>
       </c>
       <c r="Q21" t="n">
-        <v>349.1199074638034</v>
+        <v>349.1199074638033</v>
       </c>
       <c r="R21" t="n">
         <v>169.8096966072568</v>
       </c>
       <c r="S21" t="n">
-        <v>50.80136091634161</v>
+        <v>50.8013609163416</v>
       </c>
       <c r="T21" t="n">
         <v>11.02395529684013</v>
@@ -32625,16 +32625,16 @@
         <v>20.38622518619354</v>
       </c>
       <c r="I22" t="n">
-        <v>68.95463488336217</v>
+        <v>68.95463488336216</v>
       </c>
       <c r="J22" t="n">
         <v>162.1100953711933</v>
       </c>
       <c r="K22" t="n">
-        <v>266.3966849484184</v>
+        <v>266.3966849484183</v>
       </c>
       <c r="L22" t="n">
-        <v>340.8960395654489</v>
+        <v>340.8960395654488</v>
       </c>
       <c r="M22" t="n">
         <v>359.4270765700766</v>
@@ -32646,22 +32646,22 @@
         <v>324.0951218762137</v>
       </c>
       <c r="P22" t="n">
-        <v>277.3193659275241</v>
+        <v>277.319365927524</v>
       </c>
       <c r="Q22" t="n">
         <v>192.0015543865323</v>
       </c>
       <c r="R22" t="n">
-        <v>103.098435348582</v>
+        <v>103.0984353485819</v>
       </c>
       <c r="S22" t="n">
-        <v>39.95950274226276</v>
+        <v>39.95950274226275</v>
       </c>
       <c r="T22" t="n">
-        <v>9.797061183549033</v>
+        <v>9.797061183549031</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1250688661729666</v>
+        <v>0.1250688661729665</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,19 +32786,19 @@
         <v>94.16545057692608</v>
       </c>
       <c r="J24" t="n">
-        <v>258.3971937423649</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>242.3629156091036</v>
+        <v>441.6419610051831</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>593.8421185746147</v>
       </c>
       <c r="M24" t="n">
         <v>692.9857426533781</v>
       </c>
       <c r="N24" t="n">
-        <v>711.3270132179795</v>
+        <v>188.3197961028579</v>
       </c>
       <c r="O24" t="n">
         <v>650.7252480823577</v>
@@ -33026,16 +33026,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>441.6419610051831</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6354234903171</v>
+        <v>593.8421185746147</v>
       </c>
       <c r="M27" t="n">
         <v>692.9857426533781</v>
       </c>
       <c r="N27" t="n">
-        <v>711.3270132179795</v>
+        <v>188.3197961028579</v>
       </c>
       <c r="O27" t="n">
         <v>650.7252480823577</v>
@@ -33260,16 +33260,16 @@
         <v>94.16545057692608</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>258.3971937423649</v>
       </c>
       <c r="K30" t="n">
-        <v>441.6419610051831</v>
+        <v>337.9268855457229</v>
       </c>
       <c r="L30" t="n">
         <v>593.8421185746147</v>
       </c>
       <c r="M30" t="n">
-        <v>692.9857426533781</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>711.3270132179795</v>
@@ -33278,13 +33278,13 @@
         <v>650.7252480823577</v>
       </c>
       <c r="P30" t="n">
-        <v>232.5254894433041</v>
+        <v>522.2643805373513</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>349.1199074638034</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>169.8096966072568</v>
       </c>
       <c r="S30" t="n">
         <v>50.80136091634161</v>
@@ -33497,22 +33497,22 @@
         <v>94.16545057692608</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>258.3971937423649</v>
       </c>
       <c r="K33" t="n">
-        <v>373.9224826848019</v>
+        <v>441.6419610051831</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>593.8421185746147</v>
       </c>
       <c r="M33" t="n">
-        <v>692.9857426533781</v>
+        <v>546.5479621004713</v>
       </c>
       <c r="N33" t="n">
         <v>711.3270132179795</v>
       </c>
       <c r="O33" t="n">
-        <v>650.7252480823577</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>522.2643805373513</v>
@@ -33737,10 +33737,10 @@
         <v>258.3971937423649</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>441.6419610051831</v>
       </c>
       <c r="L36" t="n">
-        <v>243.0758564146188</v>
+        <v>447.4043380217079</v>
       </c>
       <c r="M36" t="n">
         <v>692.9857426533781</v>
@@ -33749,7 +33749,7 @@
         <v>711.3270132179795</v>
       </c>
       <c r="O36" t="n">
-        <v>650.7252480823577</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>522.2643805373513</v>
@@ -33971,22 +33971,22 @@
         <v>94.16545057692608</v>
       </c>
       <c r="J39" t="n">
-        <v>258.3971937423649</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>441.6419610051831</v>
       </c>
       <c r="L39" t="n">
-        <v>243.0758564146188</v>
+        <v>593.8421185746147</v>
       </c>
       <c r="M39" t="n">
-        <v>692.9857426533781</v>
+        <v>678.1075291761697</v>
       </c>
       <c r="N39" t="n">
         <v>711.3270132179795</v>
       </c>
       <c r="O39" t="n">
-        <v>650.7252480823577</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>522.2643805373513</v>
@@ -34135,7 +34135,7 @@
         <v>650.2264361222233</v>
       </c>
       <c r="L41" t="n">
-        <v>806.6633909641638</v>
+        <v>806.6633909641637</v>
       </c>
       <c r="M41" t="n">
         <v>897.5684498432344</v>
@@ -34211,10 +34211,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>373.9224826848019</v>
+        <v>441.6419610051831</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>279.9730348372749</v>
       </c>
       <c r="M42" t="n">
         <v>692.9857426533781</v>
@@ -34229,7 +34229,7 @@
         <v>522.2643805373513</v>
       </c>
       <c r="Q42" t="n">
-        <v>349.1199074638034</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>169.8096966072568</v>
@@ -34378,7 +34378,7 @@
         <v>897.5684498432344</v>
       </c>
       <c r="N44" t="n">
-        <v>912.092045740623</v>
+        <v>912.0920457406216</v>
       </c>
       <c r="O44" t="n">
         <v>861.262654907487</v>
@@ -34448,7 +34448,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>441.6419610051831</v>
       </c>
       <c r="L45" t="n">
         <v>593.8421185746147</v>
@@ -34457,7 +34457,7 @@
         <v>692.9857426533781</v>
       </c>
       <c r="N45" t="n">
-        <v>711.3270132179795</v>
+        <v>397.4579294806398</v>
       </c>
       <c r="O45" t="n">
         <v>650.7252480823577</v>
@@ -34466,10 +34466,10 @@
         <v>522.2643805373513</v>
       </c>
       <c r="Q45" t="n">
-        <v>154.0434050227983</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>169.8096966072568</v>
       </c>
       <c r="S45" t="n">
         <v>50.80136091634161</v>
@@ -34672,10 +34672,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1852657963311763</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -34690,7 +34690,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -34735,7 +34735,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.1852657963311772</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -34787,10 +34787,10 @@
         <v>4.562286607642875</v>
       </c>
       <c r="N3" t="n">
+        <v>4.562286607642875</v>
+      </c>
+      <c r="O3" t="n">
         <v>4.377951795212859</v>
-      </c>
-      <c r="O3" t="n">
-        <v>4.562286607642875</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34912,13 +34912,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>4.974916053893835</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="M6" t="n">
         <v>6.876045741711437</v>
@@ -35027,7 +35027,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O6" t="n">
-        <v>6.598225711743297</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35149,7 +35149,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>4.974916053893835</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -35164,7 +35164,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4.974916053893835</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -35182,7 +35182,7 @@
         <v>2.180352849250227</v>
       </c>
       <c r="N8" t="n">
-        <v>6.876045741711465</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35255,19 +35255,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>6.598225711743324</v>
+        <v>5.273366026243322</v>
       </c>
       <c r="M9" t="n">
-        <v>6.876045741711465</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N9" t="n">
-        <v>6.876045741711465</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O9" t="n">
-        <v>6.876045741711465</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1.324859685499973</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,25 +35410,25 @@
         <v>252.8025943015995</v>
       </c>
       <c r="K11" t="n">
-        <v>430.1365850772428</v>
+        <v>430.1365850772427</v>
       </c>
       <c r="L11" t="n">
-        <v>570.8969759941767</v>
+        <v>570.8969759941765</v>
       </c>
       <c r="M11" t="n">
-        <v>667.2222166159619</v>
+        <v>667.2222166159617</v>
       </c>
       <c r="N11" t="n">
-        <v>682.6789821440309</v>
+        <v>682.6789821440307</v>
       </c>
       <c r="O11" t="n">
-        <v>631.1644434858003</v>
+        <v>631.1644434858002</v>
       </c>
       <c r="P11" t="n">
-        <v>503.834754192518</v>
+        <v>503.8347541925178</v>
       </c>
       <c r="Q11" t="n">
-        <v>329.699577688761</v>
+        <v>329.6995776887609</v>
       </c>
       <c r="R11" t="n">
         <v>105.5118069423127</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>131.5595670756983</v>
       </c>
       <c r="K12" t="n">
         <v>303.8005220308241</v>
       </c>
       <c r="L12" t="n">
-        <v>455.2877387947406</v>
+        <v>455.2877387947405</v>
       </c>
       <c r="M12" t="n">
-        <v>27.84449161623719</v>
+        <v>476.2702256751861</v>
       </c>
       <c r="N12" t="n">
-        <v>579.9853011346463</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>508.1290036379133</v>
+        <v>508.1290036379132</v>
       </c>
       <c r="P12" t="n">
-        <v>388.2899731230211</v>
+        <v>388.289973123021</v>
       </c>
       <c r="Q12" t="n">
         <v>209.1381333777819</v>
       </c>
       <c r="R12" t="n">
-        <v>24.13019264329287</v>
+        <v>24.13019264329284</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35574,13 +35574,13 @@
         <v>400.6367303602916</v>
       </c>
       <c r="M13" t="n">
-        <v>431.1616190664438</v>
+        <v>431.1616190664437</v>
       </c>
       <c r="N13" t="n">
         <v>427.1635419620127</v>
       </c>
       <c r="O13" t="n">
-        <v>380.83091532478</v>
+        <v>380.8309153247799</v>
       </c>
       <c r="P13" t="n">
         <v>306.7485907269441</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>131.5595670756982</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>61.65390360631838</v>
       </c>
       <c r="L15" t="n">
-        <v>260.2112363537362</v>
+        <v>455.2877387947404</v>
       </c>
       <c r="M15" t="n">
         <v>550.8517087313596</v>
@@ -35741,7 +35741,7 @@
         <v>508.1290036379131</v>
       </c>
       <c r="P15" t="n">
-        <v>388.2899731230209</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>209.1381333777818</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>100.901580789048</v>
+        <v>100.901580789047</v>
       </c>
       <c r="K16" t="n">
-        <v>276.277858657062</v>
+        <v>276.2778586570624</v>
       </c>
       <c r="L16" t="n">
-        <v>400.6367303602914</v>
+        <v>400.6367303602915</v>
       </c>
       <c r="M16" t="n">
         <v>431.1616190664437</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>252.8025943015995</v>
+        <v>252.8025943015994</v>
       </c>
       <c r="K17" t="n">
-        <v>430.1365850772427</v>
+        <v>430.1365850772426</v>
       </c>
       <c r="L17" t="n">
         <v>570.8969759941765</v>
       </c>
       <c r="M17" t="n">
-        <v>667.2222166159617</v>
+        <v>667.2222166159615</v>
       </c>
       <c r="N17" t="n">
         <v>682.6789821440307</v>
       </c>
       <c r="O17" t="n">
-        <v>631.1644434858002</v>
+        <v>631.1644434858</v>
       </c>
       <c r="P17" t="n">
-        <v>503.8347541925178</v>
+        <v>503.8347541925177</v>
       </c>
       <c r="Q17" t="n">
         <v>329.6995776887609</v>
       </c>
       <c r="R17" t="n">
-        <v>105.5118069423127</v>
+        <v>105.5118069423126</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>131.5595670756983</v>
+        <v>131.5595670756982</v>
       </c>
       <c r="K18" t="n">
-        <v>303.8005220308241</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>455.2877387947405</v>
+        <v>104.5214766347453</v>
       </c>
       <c r="M18" t="n">
-        <v>550.8517087313598</v>
+        <v>550.8517087313596</v>
       </c>
       <c r="N18" t="n">
-        <v>579.9853011346462</v>
+        <v>579.9853011346461</v>
       </c>
       <c r="O18" t="n">
-        <v>475.1205185911883</v>
+        <v>508.1290036379131</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>388.2899731230209</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>209.1381333777818</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>24.13019264329282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>69.04905441467301</v>
+        <v>102.6852957373963</v>
       </c>
       <c r="K19" t="n">
-        <v>268.3091899504727</v>
+        <v>278.0615736054114</v>
       </c>
       <c r="L19" t="n">
         <v>402.4204453086408</v>
@@ -36054,10 +36054,10 @@
         <v>428.9472569103619</v>
       </c>
       <c r="O19" t="n">
-        <v>382.6146302731293</v>
+        <v>339.2260052954663</v>
       </c>
       <c r="P19" t="n">
-        <v>308.5323056752934</v>
+        <v>308.5323056752933</v>
       </c>
       <c r="Q19" t="n">
         <v>139.7738916177137</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>252.8025943015995</v>
+        <v>252.8025943015994</v>
       </c>
       <c r="K20" t="n">
-        <v>430.1365850772427</v>
+        <v>430.1365850772426</v>
       </c>
       <c r="L20" t="n">
         <v>570.8969759941765</v>
       </c>
       <c r="M20" t="n">
-        <v>667.2222166159617</v>
+        <v>667.2222166159615</v>
       </c>
       <c r="N20" t="n">
         <v>682.6789821440307</v>
       </c>
       <c r="O20" t="n">
-        <v>631.1644434858002</v>
+        <v>631.1644434858</v>
       </c>
       <c r="P20" t="n">
-        <v>503.8347541925178</v>
+        <v>503.8347541925177</v>
       </c>
       <c r="Q20" t="n">
         <v>329.6995776887609</v>
       </c>
       <c r="R20" t="n">
-        <v>105.5118069423127</v>
+        <v>105.5118069423126</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>303.800522030824</v>
       </c>
       <c r="L21" t="n">
-        <v>236.0810437104429</v>
+        <v>455.2877387947404</v>
       </c>
       <c r="M21" t="n">
-        <v>550.8517087313598</v>
+        <v>550.8517087313596</v>
       </c>
       <c r="N21" t="n">
-        <v>579.9853011346462</v>
+        <v>565.1070876574385</v>
       </c>
       <c r="O21" t="n">
-        <v>508.1290036379132</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>388.289973123021</v>
+        <v>388.2899731230209</v>
       </c>
       <c r="Q21" t="n">
-        <v>209.1381333777819</v>
+        <v>209.1381333777818</v>
       </c>
       <c r="R21" t="n">
-        <v>24.13019264329284</v>
+        <v>24.13019264329282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>69.04905441467314</v>
+        <v>69.04905441467301</v>
       </c>
       <c r="K22" t="n">
-        <v>268.3091899504694</v>
+        <v>268.3091899504718</v>
       </c>
       <c r="L22" t="n">
-        <v>402.420445308641</v>
+        <v>402.4204453086408</v>
       </c>
       <c r="M22" t="n">
-        <v>432.9453340147932</v>
+        <v>432.945334014793</v>
       </c>
       <c r="N22" t="n">
-        <v>428.9472569103621</v>
+        <v>428.9472569103619</v>
       </c>
       <c r="O22" t="n">
-        <v>382.6146302731294</v>
+        <v>382.6146302731292</v>
       </c>
       <c r="P22" t="n">
-        <v>308.5323056752935</v>
+        <v>308.5323056752933</v>
       </c>
       <c r="Q22" t="n">
-        <v>139.7738916177138</v>
+        <v>139.7738916177137</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>131.5595670756983</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>104.5214766347446</v>
+        <v>303.8005220308241</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>455.2877387947405</v>
       </c>
       <c r="M24" t="n">
         <v>550.8517087313598</v>
       </c>
       <c r="N24" t="n">
-        <v>579.9853011346462</v>
+        <v>56.97808401952457</v>
       </c>
       <c r="O24" t="n">
         <v>508.1290036379132</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>69.04905441467291</v>
+        <v>102.6852957373964</v>
       </c>
       <c r="K25" t="n">
-        <v>278.0615736054112</v>
+        <v>278.0615736054114</v>
       </c>
       <c r="L25" t="n">
-        <v>402.4204453086408</v>
+        <v>402.4204453086409</v>
       </c>
       <c r="M25" t="n">
-        <v>432.9453340147929</v>
+        <v>432.945334014793</v>
       </c>
       <c r="N25" t="n">
-        <v>419.1948732554258</v>
+        <v>385.5586319326989</v>
       </c>
       <c r="O25" t="n">
-        <v>382.6146302731291</v>
+        <v>382.6146302731293</v>
       </c>
       <c r="P25" t="n">
-        <v>308.5323056752933</v>
+        <v>308.5323056752934</v>
       </c>
       <c r="Q25" t="n">
-        <v>139.7738916177136</v>
+        <v>139.7738916177138</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>303.8005220308241</v>
       </c>
       <c r="L27" t="n">
-        <v>236.0810437104429</v>
+        <v>455.2877387947405</v>
       </c>
       <c r="M27" t="n">
         <v>550.8517087313598</v>
       </c>
       <c r="N27" t="n">
-        <v>579.9853011346462</v>
+        <v>56.97808401952457</v>
       </c>
       <c r="O27" t="n">
         <v>508.1290036379132</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>100.9015807890471</v>
+        <v>100.901580789047</v>
       </c>
       <c r="K28" t="n">
-        <v>276.2778586570621</v>
+        <v>276.277858657062</v>
       </c>
       <c r="L28" t="n">
         <v>400.6367303602915</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>131.5595670756983</v>
       </c>
       <c r="K30" t="n">
-        <v>303.8005220308241</v>
+        <v>200.0854465713639</v>
       </c>
       <c r="L30" t="n">
         <v>455.2877387947405</v>
       </c>
       <c r="M30" t="n">
-        <v>550.8517087313598</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>579.9853011346462</v>
@@ -36926,13 +36926,13 @@
         <v>508.1290036379132</v>
       </c>
       <c r="P30" t="n">
-        <v>98.55108202897384</v>
+        <v>388.289973123021</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>209.1381333777819</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>24.13019264329284</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>131.5595670756983</v>
       </c>
       <c r="K33" t="n">
-        <v>236.0810437104429</v>
+        <v>303.8005220308241</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>455.2877387947405</v>
       </c>
       <c r="M33" t="n">
-        <v>550.8517087313598</v>
+        <v>404.413928178453</v>
       </c>
       <c r="N33" t="n">
         <v>579.9853011346462</v>
       </c>
       <c r="O33" t="n">
-        <v>508.1290036379132</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>388.289973123021</v>
@@ -37227,7 +37227,7 @@
         <v>102.6852957373963</v>
       </c>
       <c r="K34" t="n">
-        <v>278.0615736054114</v>
+        <v>234.6729486277498</v>
       </c>
       <c r="L34" t="n">
         <v>402.4204453086408</v>
@@ -37245,7 +37245,7 @@
         <v>308.5323056752933</v>
       </c>
       <c r="Q34" t="n">
-        <v>96.38526664005238</v>
+        <v>139.7738916177137</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>131.5595670756983</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>303.8005220308241</v>
       </c>
       <c r="L36" t="n">
-        <v>104.5214766347446</v>
+        <v>308.8499582418337</v>
       </c>
       <c r="M36" t="n">
         <v>550.8517087313598</v>
@@ -37397,7 +37397,7 @@
         <v>579.9853011346462</v>
       </c>
       <c r="O36" t="n">
-        <v>508.1290036379132</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>388.289973123021</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>102.6852957373962</v>
+        <v>102.6852957373963</v>
       </c>
       <c r="K37" t="n">
-        <v>278.0615736054112</v>
+        <v>278.0615736054114</v>
       </c>
       <c r="L37" t="n">
-        <v>402.4204453086406</v>
+        <v>402.4204453086408</v>
       </c>
       <c r="M37" t="n">
-        <v>432.9453340147929</v>
+        <v>389.556709037132</v>
       </c>
       <c r="N37" t="n">
-        <v>428.9472569103618</v>
+        <v>428.9472569103619</v>
       </c>
       <c r="O37" t="n">
-        <v>382.6146302731291</v>
+        <v>382.6146302731292</v>
       </c>
       <c r="P37" t="n">
-        <v>308.5323056752932</v>
+        <v>308.5323056752933</v>
       </c>
       <c r="Q37" t="n">
-        <v>96.38526664005559</v>
+        <v>139.7738916177137</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>329.6995776887609</v>
       </c>
       <c r="R38" t="n">
-        <v>105.5118069423127</v>
+        <v>105.5118069423145</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>131.5595670756983</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>303.8005220308241</v>
       </c>
       <c r="L39" t="n">
-        <v>104.5214766347446</v>
+        <v>455.2877387947405</v>
       </c>
       <c r="M39" t="n">
-        <v>550.8517087313598</v>
+        <v>535.9734952541513</v>
       </c>
       <c r="N39" t="n">
         <v>579.9853011346462</v>
       </c>
       <c r="O39" t="n">
-        <v>508.1290036379132</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>388.289973123021</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>69.04905441467298</v>
+        <v>102.6852957373962</v>
       </c>
       <c r="K40" t="n">
-        <v>278.0615736054114</v>
+        <v>278.0615736054112</v>
       </c>
       <c r="L40" t="n">
-        <v>402.4204453086408</v>
+        <v>359.0318203309814</v>
       </c>
       <c r="M40" t="n">
-        <v>432.945334014793</v>
+        <v>432.9453340147929</v>
       </c>
       <c r="N40" t="n">
-        <v>428.9472569103619</v>
+        <v>428.9472569103618</v>
       </c>
       <c r="O40" t="n">
-        <v>382.6146302731292</v>
+        <v>382.6146302731291</v>
       </c>
       <c r="P40" t="n">
         <v>308.5323056752933</v>
       </c>
       <c r="Q40" t="n">
-        <v>130.0215079627755</v>
+        <v>139.7738916177136</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,13 +37783,13 @@
         <v>430.1365850772427</v>
       </c>
       <c r="L41" t="n">
-        <v>570.8969759941765</v>
+        <v>570.8969759941764</v>
       </c>
       <c r="M41" t="n">
         <v>667.2222166159617</v>
       </c>
       <c r="N41" t="n">
-        <v>682.678982144032</v>
+        <v>682.6789821440307</v>
       </c>
       <c r="O41" t="n">
         <v>631.1644434858002</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>236.0810437104429</v>
+        <v>303.8005220308241</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>141.4186550574007</v>
       </c>
       <c r="M42" t="n">
         <v>550.8517087313598</v>
@@ -37877,7 +37877,7 @@
         <v>388.289973123021</v>
       </c>
       <c r="Q42" t="n">
-        <v>209.1381333777819</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>24.13019264329284</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>82.15828539368306</v>
+        <v>82.15828539368312</v>
       </c>
       <c r="K43" t="n">
-        <v>257.5345632616981</v>
+        <v>257.5345632616982</v>
       </c>
       <c r="L43" t="n">
         <v>381.8934349649276</v>
       </c>
       <c r="M43" t="n">
-        <v>412.4183236710797</v>
+        <v>412.4183236710798</v>
       </c>
       <c r="N43" t="n">
-        <v>408.4202465666486</v>
+        <v>408.4202465666488</v>
       </c>
       <c r="O43" t="n">
         <v>362.087619929416</v>
       </c>
       <c r="P43" t="n">
-        <v>288.0052953315801</v>
+        <v>288.0052953315802</v>
       </c>
       <c r="Q43" t="n">
-        <v>119.2468812740004</v>
+        <v>119.2468812740005</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>667.2222166159617</v>
       </c>
       <c r="N44" t="n">
-        <v>682.678982144032</v>
+        <v>682.6789821440307</v>
       </c>
       <c r="O44" t="n">
         <v>631.1644434858002</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>303.8005220308241</v>
       </c>
       <c r="L45" t="n">
         <v>455.2877387947405</v>
@@ -38105,7 +38105,7 @@
         <v>550.8517087313598</v>
       </c>
       <c r="N45" t="n">
-        <v>579.9853011346462</v>
+        <v>266.1162173973065</v>
       </c>
       <c r="O45" t="n">
         <v>508.1290036379132</v>
@@ -38114,10 +38114,10 @@
         <v>388.289973123021</v>
       </c>
       <c r="Q45" t="n">
-        <v>14.06163093677679</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>24.13019264329284</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
